--- a/TestDataset.xlsx
+++ b/TestDataset.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -413,1440 +413,6 @@
   <si>
     <t>@James_Gross Well they are now reporting quite effectively. It's just they refuse to put their numbers in a table or dashboard for reasons that are beyond me.</t>
   </si>
-  <si>
-    <t>Looking at the numbers this is not like yesterday where one state (California) drove a huge increase. This number seems much more solid driven by a number of states reporting large numbers of tests completed.</t>
-  </si>
-  <si>
-    <t>India has lost over 50000 individuals to coronavirus till date. In view of the rising coronavirus cases Bihar government extends lockdown in the state till 6 September. At Nationalist Congress Party chief Sharad Pawar’s residence four people tested positive for #coronavirus. https://t.co/LqGJHHVr2g</t>
-  </si>
-  <si>
-    <t>Bill Gates profits from vaccination and wants to reduce the world's population.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: @MoHFW_INDIA held a virtual meeting today with States &amp;amp; UTs to ensure adequate Oxygen availability in all healthcare facilities &amp;amp; unrestricted intra as well as inter State movement of oxygen. Read Details: https://t.co/cFx0MYEcFx #StaySafe #IndiaWillWin https://t.co/6jA2u1eY9Z</t>
-  </si>
-  <si>
-    <t>#HCPs: Attend the next COCA call Tuesday Aug 4 at 2pm ET via Zoom. Topic: COVID-19 &amp;amp; Telehealth Implementation: Stories from the Field. Learn more: https://t.co/vWVKebacNF. #COVID19 https://t.co/yID3bDxiaP</t>
-  </si>
-  <si>
-    <t>How a healthy 16-year-old boy lost his life to #COVID19 in just 12 days. https://t.co/smQHSWqt56</t>
-  </si>
-  <si>
-    <t>An important part of our work is data collection and analysis At 11:30pm every day our data Team collates results received from all testing laboratories to inform Nigerians of the number of new #COVID19 cases Results not received at this time are reported the next day https://t.co/Nyo6NeImRk</t>
-  </si>
-  <si>
-    <t>Finally we launched the first real version of the COVID Racial Data Tracker in partnership with @DrIbram and the @AntiracismCtr. This has been a major effort by our project's volunteers—and we hope it will be useful to communities across the country. https://t.co/hTyV0MA5tA</t>
-  </si>
-  <si>
-    <t>Acc to @MoHFW_INDIA #Incubation period for #COVID19 which is the time between exposure to the novel #coronavirus (becoming infected) and symptom onset is 1 to 12.5 days (with median estimates of 5 to 6 days) but can be as long as 14 days. #Coronavirus #Covid_19 #COVIDー19 https://t.co/u0wkfQS3sM</t>
-  </si>
-  <si>
-    <t>Nasal flu vaccine side effects do not cause covid</t>
-  </si>
-  <si>
-    <t>• Today’s cases bring our combined total of confirmed and probable COVID-19 cases to 1492.⁣ ⁣ • We now have 1368 people reported as having recovered. ⁣ • Today there are two people in hospital – one each in Middlemore and North Shore hospitals. Neither are in ICU.⁣</t>
-  </si>
-  <si>
-    <t>NEW PUBLICATION ➡️#COVID19 pandemic could cause #HIV treatment interruptions and allow an increase in new infections ➡️Programs should plan now to avoid these risks and save lives 🔰Full report https://t.co/0X4XeY1iIz Authors: @brittajewell JenniferSmith TimothyHallett https://t.co/mmRowJy5JR</t>
-  </si>
-  <si>
-    <t>Transparency from our leaders is vital during this crisis. We must all have access to data so that we can make informed decisions about our own behavior changes. AZ residents you can access our data model projections at https://t.co/0u4iUx0kml https://t.co/rpkjdMZKeV</t>
-  </si>
-  <si>
-    <t>There is no one in NZ receiving hospital level care for COVID-19. ​ ​ Yesterday our laboratories completed 2575 tests bringing the total number of tests completed to 424719. The Minister is advised &amp;amp; reassured that these numbers will continue to increase over the coming days.</t>
-  </si>
-  <si>
-    <t>In @followlasg our rapid response team is working with NFELTP to strengthen community testing for #COVID19 in LGAs. The team provides support to newly reactivated LGA walk-in testing sites for increased testing capacity access and awareness of #COVID19 at the grassroot level. https://t.co/MnIu3OBT3v</t>
-  </si>
-  <si>
-    <t>Of the new recovered cases about 60% are reported from five States viz. Maharashtra Tamil Nadu Andhra Pradesh Karnataka &amp;amp; Uttar Pradesh. Maharashtra has alone contributed more than 22000 (23%) &amp;amp; Andhra Pradesh has contributed more than 11000 (12.3%) to the new recoveries. https://t.co/NtODWIpFlp</t>
-  </si>
-  <si>
-    <t>Claim: India began screening passengers from #COVID19-affected countries before it had a single case: PM Modi Fact: The govt mandated universal screening of all internat'l flights only on March 4 by when 27 cases had been detected across 5 Indian states https://t.co/2cAogF5glZ</t>
-  </si>
-  <si>
-    <t>Says the coronavirus is ???a MILITARY BIO-WEAPON Developed by China's Army.??�</t>
-  </si>
-  <si>
-    <t>In Indore India Police and doctors are injecting coronavirus positive blood in Muslims.</t>
-  </si>
-  <si>
-    <t>_Photo of a vaccine developed by U.S. scientists for COVID-19._</t>
-  </si>
-  <si>
-    <t>A video clip shows a doctor couple who died after treating 134 COVID-19 patients.</t>
-  </si>
-  <si>
-    <t>1651 deaths were reported bringing the total in our dataset to 60710. This does not include 5126 probable COVID-19 deaths reported by NYC but not by New York State. We're working on separate accounting of lab-confirmed and probable deaths for all states where we can do so. https://t.co/J7rBzYS4RZ</t>
-  </si>
-  <si>
-    <t>Youth sports organizations: As you resume activities have you planned what to do if a player visitor or coach gets sick with #COVID19? CDC offers tips to protect the health and safety of staff players and visitors involved in youth sports. Tips here: https://t.co/tnPX5fnVG6. https://t.co/opS9MqsKVF</t>
-  </si>
-  <si>
-    <t>Not one politician has died from the virus.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona Health Ministry reviews COVID Management &amp;amp; Response in 15 districts across 5 States exhibiting high caseload and fatality.</t>
-  </si>
-  <si>
-    <t>Where Are They Now: Covid-19 https://t.co/j6AAcjvhg9</t>
-  </si>
-  <si>
-    <t>Leaked Report Says There Are 'Too Many Humans' On The Planet https://t.co/03kvl3oOXU #globalwarming #coronavirus #conspiracy</t>
-  </si>
-  <si>
-    <t>Another current known data problem is Washington State. After rock-solid reporting through the early part of the outbreak their system got gummed up and we have not seen a new update from the state for days.</t>
-  </si>
-  <si>
-    <t>India spraying pesticides at night to prevent COVID-19.</t>
-  </si>
-  <si>
-    <t>Home Ministry Has Declared That Posting On Coronavirus Has Been Declared A Punishable Offense</t>
-  </si>
-  <si>
-    <t>If you refuse to #SocialDistance you should sign a pledge to bypass care if you get ill with #coronavirus. https://t.co/6bPYWerUwv via @ArthurCaplan https://t.co/NWYBleKp6a</t>
-  </si>
-  <si>
-    <t>RT @CDCEnvironment: DO NOT use bleach solutions or other disinfecting products on food. Currently no cases of #COVID19 have been identifie…</t>
-  </si>
-  <si>
-    <t>Free Coronavirus Test Kits Available To All https://t.co/vvmMt2AyAi #health #coronavirus</t>
-  </si>
-  <si>
-    <t>@drharshvardhan dispels doubts raised over failure of one vaccine in clinical trials says trials are continuing only after expert committee reappraisal. “No significant mutation in SARS-CoV-2 in India”. “ICMR is actively exploring saliva-based test for COVID-19”. @PIB_India</t>
-  </si>
-  <si>
-    <t>Thirty-nine GPs and specialists have written to the BMJ calling for action on long COVID. https://t.co/4Y5kGv3pF3 https://t.co/jTc1OucOmw</t>
-  </si>
-  <si>
-    <t>Scientists are expressing cautious optimism that a COVID-19 vaccine can be ready to go by the late spring of 2021 although it’s unclear how much longer it would take to distribute the vaccine widely. https://t.co/srNfKUra8c</t>
-  </si>
-  <si>
-    <t>If you want more context about the hospitalization data situation check out our weekly roundup in which we tackled this transitional period and how it's producing erratic artificially deflated hospitalization data. https://t.co/TUohxwun8U https://t.co/cddxgJRrw1</t>
-  </si>
-  <si>
-    <t>#CoronaVirusUpdates: #COVID19 testing status update: @ICMRDELHI stated that 57239428 samples tested upto September 13 2020 978500 sample tested on September 13 2020 #StaySafe #IndiaWillWin https://t.co/awNpnMp4jv</t>
-  </si>
-  <si>
-    <t>Video shows the first infected patient of COVID-19 at Dhanbad Hospital.</t>
-  </si>
-  <si>
-    <t>Says Daniel Radcliffe has the coronavirus.</t>
-  </si>
-  <si>
-    <t>As of today there are a total of 331146 active #COVID19 cases in India and 246216 samples were tested today (till 6PM) for #COVID__19 #Lakshadweep has not reported a single case till date &amp;amp; #ArunachalPradesh &amp;amp; #Mizoram have not reported any #COVID_19 case in the last 24hrs https://t.co/7lq9UGEq9i</t>
-  </si>
-  <si>
-    <t>Trump And Coronavirus May End November 3rd https://t.co/Nn7tfMvxr3 #dranthonyfauci #smallpox</t>
-  </si>
-  <si>
-    <t>#coronavirus This is how scientists believe #coronavirus affects the body. https://t.co/mLmhAN3TJf</t>
-  </si>
-  <si>
-    <t>Former Rep. Trey Gowdy wrote essay past on social media claiming the COVID-19 pandemic was planned to help Democrats in the 2020 election.</t>
-  </si>
-  <si>
-    <t>Health equity is when everyone has the opportunity to be as healthy as possible. We must address long-standing inequities that put some racial and ethnic groups at a higher risk for #COVID19. Learn about CDC’s COVID-19 #HealthEquity Strategy: https://t.co/OVro238b8r. https://t.co/XhT7GSFsGY</t>
-  </si>
-  <si>
-    <t>Product pages on @amazon are offering toxic chlorine dioxide, an industrial bleach often sold under the name “Miracle Mineral Solution” as a #covid19 cure. Reported by @edpilkington in the Guardian https://t.co/IIwGfF4hBe</t>
-  </si>
-  <si>
-    <t>The most recent date that we have confirmed data for North Carolina is May 16th. The Infection Rate was 1.11 meaning that COVID cases were slowly increasing.</t>
-  </si>
-  <si>
-    <t>It's possible that some vaccine could be available at the end of the year. CSA Patrick Vallance says a vaccine could be available in "small amounts for certain groups" adding that we're 'more likely to see vaccines over the first half of next year.' https://t.co/N2tOTQ6zuh https://t.co/PZLzrn3EGo</t>
-  </si>
-  <si>
-    <t>In phase 1 doses will be allocated proportionally to all participating countries simultaneously to reduce overall risk. In phase 2 consideration will be given to countries’ in relation to threat and vulnerability-@DrTedros #COVID19 https://t.co/1KOCC24gcX</t>
-  </si>
-  <si>
-    <t>Great news! #Carona virus vaccine ready. Able to cure patient within 3 hours after injection. Hats off to US Scientists.
-Right now Trump announced that Roche Medical Company will launch the 
-vaccine next Sunday, and millions of doses are ready from it !!! Note : 
-This message requires confirmation</t>
-  </si>
-  <si>
-    <t>States reported 695 deaths. The trend here has been good. https://t.co/3YduwNHFWy</t>
-  </si>
-  <si>
-    <t>176 new cases of #COVID19; 95-Lagos 31-Oyo 11-FCT 8-Niger 8-Borno 6-Jigawa 4-Kaduna 3-Anambra 2-Edo 2-Rivers 2-Nasarawa 2-Bauchi 1-Benue 1-Zamfara 5621 cases of #COVID19 in Nigeria Discharged: 1472 Deaths: 176 https://t.co/VBFAS6YQYJ</t>
-  </si>
-  <si>
-    <t>Twofold increase in mortality among coronavirus patients with #hypertension. https://t.co/ENlBNtdZbL</t>
-  </si>
-  <si>
-    <t>As of July 6: In the last 7 days 9 states have reported more than 10000 new #COVID19 cases. Wear cloth face coverings keep 6ft+ between yourself and others and wash your hands often. Interested in data from your state? See the COVID Data Tracker: https://t.co/4Ku7nKLZCq https://t.co/HMPsgMSgrl</t>
-  </si>
-  <si>
-    <t>???Covid is never going away! This is the beach today in Raleigh, North Carolina.??�</t>
-  </si>
-  <si>
-    <t>Pope Francis Dying Of The Coronavirus? https://t.co/WjInjKYi4a</t>
-  </si>
-  <si>
-    <t>290 new cases of #COVID19Nigeria; Lagos-82 Plateau-82 Oyo-19 FCT-18 Edo-16 Kaduna-15 Enugu-9 Ogun-9 Kano-8 Kwara-8 Cross River-5 Ondo-5 Rivers-5 Ekiti-4 Imo-3 Borno-2 46867 confirmed 33346 discharged 950 deaths https://t.co/d5sjk0gRls</t>
-  </si>
-  <si>
-    <t>People are offering prayers in groups on rooftops despite lockdown. That too when cases of coronavirus in India are continuously increasing.</t>
-  </si>
-  <si>
-    <t>The Access to #COVID19 Tools (ACT) Accelerator aims to provide equitable access to tools to tackle all forms of #COVID19 disease (from asymptomatic to mild and severe disease). https://t.co/zpL51DmyIy</t>
-  </si>
-  <si>
-    <t>The positive rate has fallen a lot since early April. Back then it was ~20%. Now it's more like 4-5-6%. A lot of that change has been driven by the rising tests and plummeting positive rates in the northeast. https://t.co/9KrVY2od6X</t>
-  </si>
-  <si>
-    <t>RT @imperialcollege: The UK government just announced £22.5 million to support Prof Robin Shattock’s @roboskis team’s phase two trials of a…</t>
-  </si>
-  <si>
-    <t>There are 1000 open vacancies for nurses doctors and other health professionals to work on a temporary hospital in São Paulo which will be used to treat COVID-19 cases.</t>
-  </si>
-  <si>
-    <t>A photo from the funeral of a recently deceased Sri Lankan politician Arumugam Thondaman has been shared thousands of times in multiple Facebook posts. The posts claim the image shows one of Thondaman’s daughters violated Sri Lanka's mandatory coronavirus quarantine policy for travelers by attending the ceremony shortly after returning to the country from overseas.</t>
-  </si>
-  <si>
-    <t>As of this morning we have identified 28 close contacts of the Tokoroa health professional currently in the hospital for COVID-19. 16 of those have already been contacted. We expect to contact the remainder today.</t>
-  </si>
-  <si>
-    <t>The last places free of #COVID19 are in the Pacific. Here’s how WHO helped countries in the region step up their efforts to prepare for the arrival of COVID-19👉https://t.co/jgwGoj6z8b #WHOImpact https://t.co/xsBv8DwGxS</t>
-  </si>
-  <si>
-    <t>New COVIDView reports hospitalization rates and deaths from #COVID19 are increasing. Indicators that track hospitalizations and deaths usually lag behind indicators that track illness. https://t.co/zP4VYlo0Pb https://t.co/wPTwIVFQF5</t>
-  </si>
-  <si>
-    <t>While it is true that coronavirus can cause a sore throat and gargling with salt and warm water may make it feel better, it has no direct effect on the virus. #COVID19 #afaracare</t>
-  </si>
-  <si>
-    <t>A DNA vaccine* has been shown to work in rhesus monkeys; after exposing the vaccinated monkeys to COVID they had less virus in their lungs. Read the study from @ScienceMagazine --&amp;gt; https://t.co/lr8f3qmP5v</t>
-  </si>
-  <si>
-    <t>10 important strategies for dealing with the doomsday scenario of #COVID flu and measles. https://t.co/S4dscsM7XX https://t.co/Nb1o1D0RNs</t>
-  </si>
-  <si>
-    <t>Older children seem to spread COVID like adults. https://t.co/Sd5peyONOo https://t.co/6ejMr1X9F5</t>
-  </si>
-  <si>
-    <t>We’re grateful for the support from @IHSTowers in providing 4 ambulances for Nigeria’s #COVID19 response These will be used by Port Health Services of @Fmohnigeria; Kano Edo &amp;amp; Oyo State Emergency Operations Centres to expand the current capacity for transportation of cases https://t.co/cZuNClL63o</t>
-  </si>
-  <si>
-    <t>Sadly there are 4 people in hospital today around the country with COVID-19. two are in a ward at North Shore Hospital two are in ICU one at North Shore and one at Waikato hospital. We are hoping for everyone’s full and speedy recovery.</t>
-  </si>
-  <si>
-    <t>Indian politician Uddhav Thackeray has asked Christians to pray to Jesus to stop COVID-19.</t>
-  </si>
-  <si>
-    <t>The average number of cases nationwide has flattened over the past week breaking the downward trend we had seen in the beginning of August. https://t.co/S95tiOEcwN</t>
-  </si>
-  <si>
-    <t>There are 59 positive coronavirus cases in Nagpur along with three doctors one of whom is on ventilator.</t>
-  </si>
-  <si>
-    <t>The latest CDC #COVIDView report shows that minority populations like American Indian Black and Hispanic continue to be hospitalized for #COVID19 at nearly 5 times the rate of their non-Hispanic White counterparts. Learn more: https://t.co/zP4VYlo0Pb. https://t.co/hpMlWPxD25</t>
-  </si>
-  <si>
-    <t>@AsxGold Kia ora Only New Zealand residents and citizens (and their children and partners) are permitted to enter New Zealand.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona TEST TRACK TREAT- effective implementation by the Centre and States/UTs has ensured that India has one of lowest #COVID19 cases and deaths per million population compared to several other countries. https://t.co/Caqhv0M0rK</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona Union Health Ministry urges States/UTs to ensure that no restriction is imposed on the movement of Medical Oxygen between States. https://t.co/6Yx9XzSUZT @PMOIndia @drharshvardhan @AshwiniKChoubey @PIB_India @DDNewslive @airnewsalerts @ICMRDELHI @mygovindia</t>
-  </si>
-  <si>
-    <t>STUDY: COVID was likely in the mix of Seattle’s early 2020 flu season. https://t.co/t6s1HdB0MH</t>
-  </si>
-  <si>
-    <t>A photo shows people infected with coronavirus lying on the sidewalk in China.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona Active cases only 22% of total #COVID19 cases. Recoveries are now 26 lakh. Exceed Active cases by more than 18 lakh. https://t.co/ftuVx5TuRG https://t.co/0YVdlEOYBR</t>
-  </si>
-  <si>
-    <t>"States like New York, Illinois and California have been vocal in their demands for funding to bail out their pension systems, which were failing long before the COVID-19 outbreak, and other programs that aren???t related to this crisis."</t>
-  </si>
-  <si>
-    <t>NEWS! Anti-vaxxers close to deciding which medical conditions they will pretend are caused by Coronavirus vaccine https://t.co/daWxNYpj86 https://t.co/eNvXR50ByR</t>
-  </si>
-  <si>
-    <t>#CoronaVirusUpdates: 📍Total #COVID19 Cases in India (as on September 17 2020) ▶️78.64% Cured/Discharged/Migrated (4025079) ▶️19.73% Active cases (1009976) ▶️1.63% Deaths (83198) Total COVID-19 confirmed cases = Cured/Discharged/Migrated+Active cases+Deaths https://t.co/HUKbDQm35f</t>
-  </si>
-  <si>
-    <t>328 new cases of #COVID19; Lagos-121 FCT-70 Bauchi-25 Rivers-18 Oyo-16 Kaduna-15 Gombe-14 Edo-13 Ogun-13 Jigawa-8 Enugu-6 Kano-5 Osun-2 Ondo-2 11844 cases of #COVID19Nigeria Discharged: 3696 Deaths: 333 https://t.co/XQ3B7O0yIb</t>
-  </si>
-  <si>
-    <t>Florida's numbers today include a large number of backlogged tests the state said. https://t.co/esoLo6GPGN</t>
-  </si>
-  <si>
-    <t>Local lockdown measures are to be imposed in the Welsh county of Rhondda Cynon Taf after a rise in coronavirus cases https://t.co/ODij6cY0SG</t>
-  </si>
-  <si>
-    <t>WHO announces Algeria outside of danger regarding COVID-19.</t>
-  </si>
-  <si>
-    <t>States reported nearly 27k cases today the most in more than 40 days (May 8). The positive rate was the highest since late May. https://t.co/LzR2w6HTvN</t>
-  </si>
-  <si>
-    <t>The vast majority of students at St Dominic’s are casual contacts and being tested as a precaution. If these students and staff are well and have no symptoms of COVID-19 they do not need to self-isolate while waiting for test results.</t>
-  </si>
-  <si>
-    <t>Prime Minister Boris Johnson says the government will "very shortly" be setting out "the priority of the groups that we think should have COVID tests". Follow live updates as the PM faces questions from the liaison committee: https://t.co/MCYJ946KfV https://t.co/qlPstqmj0g</t>
-  </si>
-  <si>
-    <t>Antibodies for the common cold produce a positive COVID-19 test. False-positive results from COVID-19 antibody testing are behind the COVID-19 cases reported in the U.S.</t>
-  </si>
-  <si>
-    <t>Children under 18 years represent about 8.5% of reported #COVID19 cases with few deaths compared to other age groups &amp;amp; usually mild disease. 👉 https://t.co/Cs7uxQRRMN https://t.co/l4gqfttYmg</t>
-  </si>
-  <si>
-    <t>Man beaten in Deoria India in lockdown time.</t>
-  </si>
-  <si>
-    <t>Our daily update is published. We’ve now tracked 9.7 million tests up 306k from yesterday. Note that we can only track tests that a state reports. For details see: https://t.co/PZrmH4bl5Y https://t.co/DJDFYX4meY</t>
-  </si>
-  <si>
-    <t>Coronavirus Is Not Like A Broken Leg https://t.co/gGjYVfJzRC</t>
-  </si>
-  <si>
-    <t>Photos show masses fleeing Myanmar for Thailand due to coronavirus pandemic</t>
-  </si>
-  <si>
-    <t>Georgia is particularly worrisome. The state had not seen a large rise in reported deaths despite rising infections and a steep hospitalization curve. Today the state reported its second-highest deaths since the beginning of the pandemic and the highest number since April 7. https://t.co/XUz1nnA1bl</t>
-  </si>
-  <si>
-    <t>New findings confirm earlier research showing a major increase in physician employment by hospitals over the past decade. https://t.co/WOOlRIgvKu</t>
-  </si>
-  <si>
-    <t>Ireland's entire cabinet will "restrict their movements" after the health minister felt unwell and was tested for #coronavirus it has been reported https://t.co/i5zO9bFugY</t>
-  </si>
-  <si>
-    <t>In the backdrop of the lockdown videos of wild animals taking over the roads are surfacing on the internet. Among them a set of pictures of a herd of deer is doing the rounds on social media claiming that these pictures are from Lake Club Chandigarh.</t>
-  </si>
-  <si>
-    <t>The reported death toll today is 1760 about the same as last Friday. Only two states reported over 200 deaths today (NY and PA). https://t.co/0EjueTbsWz</t>
-  </si>
-  <si>
-    <t>One optimistic point: there are 15 states on the left side of this chart that are finding very few positive cases even if they're doing a lot of testing. This suggests their mitigation strategies are working. https://t.co/i9bbZKvMkC</t>
-  </si>
-  <si>
-    <t>@MathGuy_7 @HedgeyeDJ Thank you - extremely insightful. Is there one or two trusted websites that you follow to provide a good summary &amp;amp; update on covid? I follow @chrismartenson and he does a really good job. Recent video touted importance of Vitamin D and elderberry, among other things.</t>
-  </si>
-  <si>
-    <t>Florida broke New York’s 7-day average record for cases per million population today. Testing capacity is obviously much much greater now than in spring. However it’s still stunning to see that record fall. https://t.co/VGzrM6uWGW</t>
-  </si>
-  <si>
-    <t>As the outbreak continues many people in the United States will at some point in time either this year or next be exposed to #COVID19; it’s likely many will become sick but most people likely will have mild illness. https://t.co/SlDrVXXfCz</t>
-  </si>
-  <si>
-    <t>Sir Ganga Ram Hospital has directed patients to stay at home n treat Urself. Implies Delhi Govt has miserably failed in its administrative responsibility of providing health care n left the Delhites to their fate. Must be sacked n LG take the charge. U agree?</t>
-  </si>
-  <si>
-    <t>One of the previously reported cases is now considered to have recovered. Our total number of active cases is 116. Of those 39 are imported cases in MIQ facilities and 77 are community cases. ​⁣⁣ ​⁣⁣ ​⁣⁣</t>
-  </si>
-  <si>
-    <t>Joe Diffie???s death was labeled ???as a COVID-19 death and it wasn???t!??�</t>
-  </si>
-  <si>
-    <t>Modeling is all about assumptions. We assume a baseline general hospital occupancy rate of 60% across all hospitals accounting for hospitalized non-COVID patients. We assume that hospitals can increase their available beds for COVID patients by roughly double (207%).</t>
-  </si>
-  <si>
-    <t>More than 1/3 of BAME doctors in the UK are still not being given access to potentially life-saving Covid-19 risk assessments. https://t.co/qsgKFqj5p4</t>
-  </si>
-  <si>
-    <t>Our daily update is published. States reported 772k tests 47k cases and 1023 deaths. https://t.co/h7Ur4Y2f3t</t>
-  </si>
-  <si>
-    <t>A doctor named Leslie Chow discovered the coronavirus and died after contact with coronavirus patients.</t>
-  </si>
-  <si>
-    <t>Though the number of new cases has remained relatively flat the regional data shows that we're not in a steady state. Here are new cases by region scaled for population. https://t.co/VM8nPWHuKS</t>
-  </si>
-  <si>
-    <t>Yesterday our labs processed 9257 tests. Our total number of tests completed to date is 719320.​ ​ There are 159 people linked to the community cluster at the Auckland quarantine facility. This includes 85 people who have tested positive and their household contacts.</t>
-  </si>
-  <si>
-    <t>Coronavirus: Hospital in urgent plea for people not to go to 'very busy' A&amp;amp;E for COVID-19 tests https://t.co/05NRugoqJS</t>
-  </si>
-  <si>
-    <t>Rightmove said activity - aided by the current stamp duty holiday - was being driven by high demand for gardens and more space to work from home as #COVID19 disrupts day-to-day life https://t.co/ADgXpjblhl</t>
-  </si>
-  <si>
-    <t>Says "there is no" COVID-19 virus.</t>
-  </si>
-  <si>
-    <t>Anyone on the flight or in the facility at the same time as the cases are being treated as if they are close contacts. They will all be tested and isolated until a negative result is received.</t>
-  </si>
-  <si>
-    <t>@Chris_Fairchild We don’t do that because not all states provide negative results with the same frequency or comprehensiveness. At this point I don’t think positive rates are as important as other indicators. -@alexismadrigal</t>
-  </si>
-  <si>
-    <t>437 new cases of #COVID19Nigeria; Lagos-107 FCT-91 Plateau-81 Kaduna-32 Ogun-30 Kwara-24 Ebonyi-19 Ekiti-17 Oyo-8 Borno-6 Edo-6 Kano-4 Nasarawa-3 Osun-3 Taraba-3 Gombe-2 Bauchi-1 46577 confirmed 33186 discharged 945 deaths https://t.co/d70c7hFaHc</t>
-  </si>
-  <si>
-    <t>As per #TamilNadu Govt a total of 86073 samples were tested for #COVID19 on 20 Sep 2020 #COVID__19 #COVID #COVID_19 #COVIDー19 #COVID19India #Corona #coronavirus #CoronavirusIndia #CoronavirusPandemic #CoronaVirusUpdates #CovidUpdates #CoronaUpdate #CoronaUpdatesIndia https://t.co/ozPOAHr3zS</t>
-  </si>
-  <si>
-    <t>Trump’s effort to blame Obama for sluggish coronavirus testing.</t>
-  </si>
-  <si>
-    <t>First there’ll be some changes in how we track pending numbers so that state totals go up and down less erratically. Second we’ll be tracking more numbers from states and broaden our grading criteria. Third we’ll be making major changes to the website.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India climbs another historic peak of more than 13 lakh tests. More than 13.80 lakh tests done in the last 24 hours. @PMOIndia @drharshvardhan @AshwiniKChoubey @PIB_India @DDNewslive @airnewsalerts @ICMRDELHI @COVIDNewsByMIB @PTI_News @ANI</t>
-  </si>
-  <si>
-    <t>The states reported more than 21000 newly discovered cases today up from last week's low but almost an exact match for last Tuesday's new-case number. https://t.co/7LZNnGowAk</t>
-  </si>
-  <si>
-    <t>Public broadcast RTVE published a map of coronavirus cases in Spain that in fact was a map of penis' average size in different regions.</t>
-  </si>
-  <si>
-    <t>Allegheny County (PA) Department of Emergency Services is using diverse sources for their response planning including Covid Act Now. https://t.co/hcVbHYvSmw https://t.co/Hd08bBPn3Q</t>
-  </si>
-  <si>
-    <t>In an Aaj Tak news report the Chinese prime minister said "Reading Quran and offering namaz is the only cure for COVID-19."</t>
-  </si>
-  <si>
-    <t>As of Aug. 31 national forecasts suggest new weekly #COVID19 deaths may decrease in the coming weeks with 3300 to 7500 new deaths during the week ending Sept. 26. Forecasts predict 200k to 211k total COVID-19 deaths in the US by Sept. 26. More: https://t.co/Ft6cgmaMPX. https://t.co/C1JhB3v5jg</t>
-  </si>
-  <si>
-    <t>Developers, Banks Tell Government They've Already Spent Ireland's Share Of EU's €1 Trillion Covid Recovery Fund https://t.co/rJDMlwsjes</t>
-  </si>
-  <si>
-    <t>@DrJudyAMikovits What promises that a viable vaccine can be developed for COVID-19 virus. So, i think they should rehire Judith Mikovits who is a living scientific encyclopedia on viral research. She was involved with the scientific research that permitted</t>
-  </si>
-  <si>
-    <t>Nancy Pelosi Suggests That The Coronavirus (C-19) Be Renamed The (C-45) in Honor of President Trump https://t.co/sj9al7BaWb #donaldtrump</t>
-  </si>
-  <si>
-    <t>RT @WHOAFRO: How children can wear a #mask safely!😷👇🏿 Children must clean their hands🧼👐🏿💧 and maintain a safe distance📏 to stop the spread…</t>
-  </si>
-  <si>
-    <t>Mar-a-Lago Tests Positive For the Coronavirus https://t.co/d4Pkmc1CYG #donaldtrump #coronavirus #mikepence #maralago #kayleighmcenany</t>
-  </si>
-  <si>
-    <t>Covid-19 vaccine by Oxford university a success, 72 people 'cured'</t>
-  </si>
-  <si>
-    <t>The confirmation earlier today of a second death linked to COVID-19 in the last two days means the number of COVID-19 related deaths in New Zealand is now 24.</t>
-  </si>
-  <si>
-    <t>This photo shows French nurses holding a sign to denounce police violence.</t>
-  </si>
-  <si>
-    <t>Our daily update is published. States reported 70k new cases of COVID-19 a solid 819k tests and 1529 COVID-19 deaths today. Our 7-day average for deaths is now over 1000. https://t.co/P0L4w8Y6oq</t>
-  </si>
-  <si>
-    <t>WHO warns against consuming cabbage to prevent COVID-19</t>
-  </si>
-  <si>
-    <t>#CoronaVirusUpdates: 📍Total #COVID19 Cases in India (as on September 22 2020) ▶️80.12% Cured/Discharged/Migrated (4497867) ▶️17.54% Active cases (975861) ▶️1.60% Deaths (88935) Total COVID-19 confirmed cases = Cured/Discharged/Migrated+Active cases+Deaths https://t.co/AGeRkG5eGm</t>
-  </si>
-  <si>
-    <t>The weekend lag effect is pronounced in death reporting. For example last week CA reported 6 deaths on Monday then 111 on Tues. AZ reported 1 death Mon then 117 on Tues. Today AZ reported 8 deaths. CA 23. All these data are the outputs of complicated human processes. https://t.co/WkN4aqCiGT</t>
-  </si>
-  <si>
-    <t>Most of you know this by now but there is a very strong weekend effect that hits on Sundays and Mondays especially in the reporting of COVID-19 deaths. Sundays are highlighted in red below. https://t.co/fpaDhxolj0</t>
-  </si>
-  <si>
-    <t>With 10576 new infections Maharashtra records highest single-day spike in the state so far. Starting 2pm tomorrow Manipur to go under a complete lockdown for 14 days. Bhopal in Madhya Pradesh to impose a city-wide lockdown from July 24 to August 3. #COVID19 #coronavirusFacts https://t.co/6U1006Zp1P</t>
-  </si>
-  <si>
-    <t>Louisiana has posted record case counts back-to-back after not reporting on Saturday. One positive thread: compare the hospitalizations to cases charts and it's clear we're diagnosing more infections. On 4/2 LA's first peak they did 5300 tests. Today 33620. https://t.co/rgmowepkFE</t>
-  </si>
-  <si>
-    <t>A WhatsApp forward attributed to CNN claims Dr. Li Wenliang, the whistleblower of the Chinese government's propaganda about COVID-19, has documented a research report. According to this report, chemicals like Methylxanthine, Theobromine and Theophylline stimulate compounds that can ward off this virus in a human body with at least an average performing immune system.</t>
-  </si>
-  <si>
-    <t>We're debunking misinformation about coronavirus. Why? Because hoaxes travel fast and the numbers and causes of this growing outbreak need clarification. https://t.co/LqLfuNenns https://t.co/1eUOMfkdKu</t>
-  </si>
-  <si>
-    <t>More detail on this from one of @COVID19Tracking's sharpest observers @jordan_zino from @GavinNewsom's livestream. https://t.co/l2s3AloB28 https://t.co/oZuw8XckHd</t>
-  </si>
-  <si>
-    <t>A person who has been released from quarantine or isolation does not pose a risk of spreading #COVID19 to other people. Share facts about #coronavirus disease 2019! https://t.co/2AfHZLQ83v https://t.co/sAwdcn4BpE</t>
-  </si>
-  <si>
-    <t>The pandemic has opened up the door for physicians to online learning for physicians new Medscape report finds. https://t.co/jitKgkTrRT</t>
-  </si>
-  <si>
-    <t>Young people "have a greater chance of being killed by the HPV vaccine than COVID-19.”</t>
-  </si>
-  <si>
-    <t>There is no pandemic</t>
-  </si>
-  <si>
-    <t>A growing number of states and cities are requiring a face covering for anyone leaving their home. Learn more about the best materials to make your own face mask and how to properly wear and care for them: https://t.co/oSTj2oqq3m</t>
-  </si>
-  <si>
-    <t>Amoxi" Capsule made in US is the only medicine that can completely cure COVID-19.
-Egyptian Health Minister arrive in Italy with secret coronavirus cure.
- Dr Charles Lieber a Harvard professor has been arrested in the USA for manufacturing the coronavirus and selling it to China. A video news report from WCVB a TV station in Boston Massachusetts is shared with the Facebook post.
-Mountain Matterhorn in Switzerland was lit in three colours of Indian flag as a token of gratitude to India for sending Hydroxychloroquine.
-Al-Azhar Imam said he is considering exceptions on Ramadan fasting as the research says that the mouth must be kept wet to prevent COVID-19
- Japanese Nobel Tasuku Honjo says coronavirus was created in the Wuhan laboratory
-A man collapses in 5 minutes after showing COVID-19 symptoms in India.
-Celebrities spreading misinformation about coronavirus and the Janata curfew in India.
- Multiple posts shared repeatedly on Facebook and Twitter since March 2020 claim that Israel has reported zero deaths from the novel coronavirus which causes the disease COVID-19. The posts also claim Israeli citizens have protected themselves from COVID-19 by drinking a remedy of hot water lemon and baking soda which purportedly “kills” the virus.
- CDC suddenly lost 30000 deaths from coronavirus from its data thus proving the virus is not as serious as it seems.
-Photos of coronavirus patients being treated on the road in Italy.
-Indian actor Shah Rukh Khan donated money to Pakistan to fight coronavirus and did not help India at all.
-Russian President Vladimir Putin has ordered Russia’s population to stay at home for 15 days or face five years in jail.
-Indian Army has set-up a 1000 bed quarantine facility in Rajasthan's Barmer.
-Leonardo Da Vinci Hospital a COVID-19 reference hospital in Fortaleza Brazil is empty. A video "proves" there was no one at the areas open to the public.
- President Trump's claim that he inherited no ventilators from the Obama administration.
-An audio where an unidentified person links the virus that causes COVID-19 with the massive flu vaccination campaign.
-Black body bags being referred to as deaths in New York and the reason a lockdown is essential.
-Mustard oil prevents a person from getting infected with COVID-19.
-North Carolina’s health department is "telling hospitals that if they decide to do elective surgeries they won’t be eligible to receive (protective equipment) from the state.”
- After coronavirus pandemic Chinese president said it's China's time to lead the world.
-The nurses that Boris Johnson claimed saved his life are not registered in the UK.
-A claim that India’s Ministry of Home Affairs has made it a “punishable offense” for citizens to publish posts on social media about the novel coronavirus has been shared repeatedly on Facebook Twitter and WhatsApp.
- Says Nancy Pelosi was “caught trying to include abortion funding in bill to combat coronavirus.”
-A video of a man rebuking foreigners has been viewed thousands of times on social media alongside a claim that the Guinean government has ordered the arrest of all Chinese nationals in the country while awaiting the safe return of Guineans from China.
- The U.S. is the only country on earth that is protesting being locked down.
-Photo of Kurnool MLA (Hafeez Khan) making a nurse to touch the feet of a religious head in Viswabharathi Medical College who had to come to the COVID-19 quarantine facility.
-New York State Governor shows data that proves that isolation is ineffective against COVID-19.
-Homeopathic product Oscillococcinum protects against COVID-19.
-CDC admitted to lying about COVID-19 death stats.
-Notice for preparing emergency drugs was released on social media for alumni of Seoul National University College of Medicine.
-Belgian doctors turn their back on WHO director.
-Dr. Li Wenliang (the Chinese whistleblower doctor) has proposed that drinking tea can cure COVID-19.
-Any person arrested for violating lockdown in the night will not get bail until the lockdown is over in the state of Gujarat in India.
- US President Donald Trump tested positive for COVID-19.
-A picture with a quote from doctor Vincenzo Puro who allegedly said that asymptomatic people cannot infect others that the virus is not lethal and that the pandemic is a "hoax".
- Prince Charles recovered from COVID-19 with the help of Ayurvedic treatment.
- A video shows a Superintendent of police announcing the extension of Lokckdown in Maharashtra India till May 30.
- A WhatsApp audio claims that the Infanta Sofía Hospital in Madrid has 15 children in serious condition due to COVID-19 and that there are three other children in the Talavera de la Reina Hospital.
-Video shows coronavirus patients and doctors.
-A video claims to show that the Nigerian government has spent US$2 million to "import" Chinese doctors and supplies.
-Riots in London due to the unavailability of food items. The United Kingdom will be locked down by tonight. Army soldiers take to the UK streets.
-A set of claims passed as instructions to be followed during the COVID-19 pandemic period.
- Facebook post claims that the Latvian app Apturi Covid (Stop Covid) which was created to warn people who have been close to an infected person will be used so the government can track all the people from the contact list and record their locations.
-Aaj Tak channel aired a program that said drinking alcohol or smoking weed can cure COVID-19.
- President Donald Trump tweeted “Coronavirus vaccine from Israel! Stock market up! Economy even stronger now! Besides US Israel best at inventions: Judaism olives. Wonderful vaccine will stop Corona DEAD around world. Can’t make vaccines when being bombed not have been possible without peace I created in Israel!”
-Italy official Giulio Gallera: China lies to us. The date China provided is false. Italy has become Wuhan and the medical system has a breakdown.
-João Doria governor of São Paulo forbade doctors to give chloroquine to COVID-19 patients.
-A blog post has been shared thousands of times in multiple Facebook posts which claim it shows a video of a baby who died after being infected with the novel coronavirus which causes the disease COVID-19.
- A vaccine for coronavirus was available since 2001.
- Video showing policemen picking banknotes with sticks linking it with coronavirus.
-We can't make a vaccine that works for flu no vaccine for the respiratory syncytial virus (RSV) and we can't cure cancer. Yet somehow scientists can make a vaccine for COVID-19 in six months?
-Mumbai and Pune is going under military lockdown
-What we need to do to defeat the coronavirus is to consume more alkaline foods above the virus’ pH level.
-Indian Actor Aamir Khan gives Rs. 15000 to poor people in 1Kg wheat flour.
- The photo shows the funeral of Turkish deceased general Aytac Yalman due to COVID-19.
-The coronavirus responsible for COVID-19 is a mix of SARS and HIV.
-Two doctors in Bakersfield California said at a press conference that isolation measures affect the immune system and that unrestrictive controls in countries like Sweden have worked.
- Article says that the Vatican confirmed that the Pope and two assistants have coronavirus.
-Herbal tea made of malunggay and kamias leaves is a cure for COVID-19 the disease caused by the novel coronavirus.
-A video of police officers immobilizing a screaming woman. The caption states that they were being beaten by the police because they refuse to go to their houses during lockdown in Minas Gerais Brazil
- Cuba's low number of COVID-19 deaths is due to its use of hydroxychloroquine to treat patients
-A video of the doctor linked to the anti-vaccine movement Chinda Brandolino on the origin of COVID-19.
- There is a confirmed case of coronavirus in a Bogotá hospital.
-A video showing migrant laborers from Surat city in India are being sent back to Surat after their home states refused to take them back at the state border.
-Ohio Gov. Mike DeWine released 4300 prisoners and is now warning residents of a possible crime wave.
- It's not a virus but 5G that is causing disease and deaths
-An arrest by the Federal Bureau of Investigation (FBI) of a professor who had ties to China is connected to the coronavirus pandemic.
-A photo of a list of purported symptoms and treatments for the novel coronavirus which causes the disease COVID-19 has been shared hundreds of times in multiple posts on Facebook Twitter and Instagram. The purported remedies include a daily dose of vitamins; exposure to sunlight; and a diet of alkaline foods.
- Police catches coronavirus positive patient on the road.
- In the 30-second viral video a man lifts his shirt and challenges aa police officer who is pointing a gun at him. Another police officer kicks the man from behind pins him down on the road and makes an arrest. The text overlaid on the video reads "Italy says lockdown they mean it.</t>
-  </si>
-  <si>
-    <t>The latest CDC #COVIDView report shows that weekly hospitalizations associated with #COVID19 have peaked twice since the outbreak began once during the week ending April 18 and a second time during the week ending July 18. Learn more: https://t.co/zP4VYlo0Pb. https://t.co/N1XLuxr9Hw</t>
-  </si>
-  <si>
-    <t>Coronavirus was spread via bananas</t>
-  </si>
-  <si>
-    <t>@VinLew Kia ora Vincent Sorry you're having issues with the app. Please call the Ministry of Health team on 0800 800 606 or email your query and/or feedback about the app to tracingapp-feedback@health.govt.nz.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona Focused and effective efforts of containment testing isolation and treatment have resulted in increasing percentage recovery rates and steadily falling percentage active cases. https://t.co/GWHeeWBb9s</t>
-  </si>
-  <si>
-    <t>Our total number of confirmed cases of COVID-19 is now 1442 which is the number we report to the World Health Organization. ​ ​ Yesterday our laboratories processed 8953 tests bringing the total number of tests completed to date to 848420.</t>
-  </si>
-  <si>
-    <t>China president xi jinping visited masjid and request Muslims for dua in present crisis country going through.we need your help.</t>
-  </si>
-  <si>
-    <t>In this video italian representative Sara Cunial tells the truth about Bill Gates and its will to control world population through vaccines and medical experiment.</t>
-  </si>
-  <si>
-    <t>A message is circulating, claiming that Kins of those who died of COVID-19 can claim insurance under Pradhan Mantri Jeevan Jyoti Bima Yojana (PMJJBY) &amp;amp; Pradhan Mantri Suraksha Bima Yojana (PMSBY). https://t.co/OjQHiBUECp</t>
-  </si>
-  <si>
-    <t>Testing positive for antibodies to the virus that causes #COVID19 means you likely had a past infection. It’s not yet known whether antibodies will protect you from getting infected again. Learn more about antibody testing: https://t.co/Xa1qKwzJhO. https://t.co/SgRRNBVcG7</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: Recovered cases are 2.93 times the number of Active Cases. 1977779 people have been recovered so far. 673166 are activ…</t>
-  </si>
-  <si>
-    <t>At the same time bilateral vaccine deals and vaccine nationalism could compromise equitable access and hold up progress for all countries in bringing the #COVID19 pandemic to an end-@DrTedros</t>
-  </si>
-  <si>
-    <t>Nevada "quietly" reversed its "decision to block HCQ prescriptions for COVID-19."</t>
-  </si>
-  <si>
-    <t>#coronavirus #Covid19 or #NYC “If people saw this, they would stay home.HORRIBLE.#StayHome #StayAtHome #StaySafe #NYC #NYCLockdown #FridayFeeling https://t.co/UTKzUPNxIl</t>
-  </si>
-  <si>
-    <t>@jsolomonReports Soon 67
-Never had flu vaccine, never had flu
-Most all I know who got flu vaccine also got flu
-That’s 1st person knowledge, not conjecture
-Alt: Organic dk greens, protein, exercise, H2O, sodium bicarbonate, D3, C, iodine, etc
-JESUS is my physician
-Greatest ever was, is, will be</t>
-  </si>
-  <si>
-    <t>Just watch this video and remember that incident when Zomato's Deepinder made a big deal out of someone refusing a delivery from a Muslim guy. There have been so many incidents that you just can't trust them. Who wants to eat food contaminated with spit?</t>
-  </si>
-  <si>
-    <t>“For the World Health Organization the international entity whose sole responsibility it is to alert the world of global pandemics like this to miss this is a huge problem.”</t>
-  </si>
-  <si>
-    <t>RT @DrTedros: COVAX is a groundbreaking way to pool R&amp;amp;D &amp;amp; procurement risks across multiple vaccines. It enables countries to place collect…</t>
-  </si>
-  <si>
-    <t>It puts the facemask on the skin, or it gets the lockdown again
-Get yours HERE &amp;gt;&amp;gt;&amp;gt; https://t.co/UMG2Y6AF0k https://t.co/S7xZsWTKib</t>
-  </si>
-  <si>
-    <t>Yesterday our laboratories completed 824 tests bringing the total completed to date to 311121 - lower testing volumes are regularly observed over weekends. Anyone with symptoms that could be COVID-19 should call Healthline their GP about getting a test - which is free.</t>
-  </si>
-  <si>
-    <t>Our total number of confirmed cases to 1184 which is the number we report to the World Health Organization.</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh is reimposing lockdown due to rise in COVID cases</t>
-  </si>
-  <si>
-    <t>The group of 2159: Aside from the people on compassionate exemptions all of these people had completed a full 14 days in managed isolation. A reminder to anyone who was in a managed isolation facility between June 9-16 who has not yet spoken with Healthline to call 093020408.</t>
-  </si>
-  <si>
-    <t>Healthcare workers are scared because too many people won’t wear a mask. https://t.co/5yto2C39oc</t>
-  </si>
-  <si>
-    <t>Both of the cases were picked up at our routine testing at around day 3. One of the cases who has been in isolation in Wellington is now considered recovered.Recovered being at least 10 days since onset of symptoms at least 48 hours asymptomatic and has returned a negative test.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona In its collaborative and determined fight against #COVID19 India has scaled a new peak. 66500 the highest number of patients have recovered and been discharged yesterday. https://t.co/8dFhF3pvPa</t>
-  </si>
-  <si>
-    <t>The Simpsons predicted the new coronavirus outbreak.</t>
-  </si>
-  <si>
-    <t>#SwasthaBharat National telemedicine service completes over 1.5 lakh consultations. https://t.co/sAJutQcAEW</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: Nearly 9 lakh (899864) tests have been conducted in a single day the highest tests/day so far: Secretary @MoHFW_INDIA at…</t>
-  </si>
-  <si>
-    <t>Bollywood Actress Aishwarya Rai To Host A Coronavirus Telethon/Auction in Mumbai https://t.co/99dP2Q8LKQ #india #auction #bollywood</t>
-  </si>
-  <si>
-    <t>NEW: There have been numerous #COVID19 outbreaks on recent cruise ship voyages. @CDCDirector has extended the previous No Sail Order to prevent the spread of COVID-19 among crew onboard. https://t.co/OTWJgCN8wQ https://t.co/sbHX4p907F</t>
-  </si>
-  <si>
-    <t>@joshtpm We just posted new numbers. Missing the private labs is going to hurt transparency quite severely we think. -@alexismadrigal</t>
-  </si>
-  <si>
-    <t>Although the number of #COVID19 cases in most states continued to decline over the last 7 days COVID-19 is widespread in many areas especially the South &amp;amp; West. As of Aug. 25 the US reported nearly 1000 deaths a day over the last week. See more data: https://t.co/441ntP6EUZ. https://t.co/HvW3SFqa11</t>
-  </si>
-  <si>
-    <t>UPDATE: #Coronavirus Europe (11 countries) ➡️1.88% to 11.43% of population infected with #COVID19 up to 28th March ➡️Interventions have already impacted control of the epidemic ➡️Interventions have saved between 21000 &amp;amp; 120000 lives 🔰Report https://t.co/lcFch0FxCt https://t.co/Int4MCwQjG</t>
-  </si>
-  <si>
-    <t>Indian media outlets claimed that a man in Madhya Pradesh's Khargone passed away from COVID-19.</t>
-  </si>
-  <si>
-    <t>#CoronaVirusUpdates: State-wise details of Total Confirmed #COVID19 cases (till 23 September 2020 8 AM) ➡️States with 1-20000 confirmed cases ➡️States with 20001-140000 confirmed cases ➡️States with 140000+ confirmed cases ➡️Total no. of confirmed cases so far https://t.co/0b55TnqVRH</t>
-  </si>
-  <si>
-    <t>RT @CDCDirector: NEW #COVID19 information is available to help you decide whether to go out and what precautions to take if you do includi…</t>
-  </si>
-  <si>
-    <t>The Tunisian President Qais Said has ordered the dispatch of a medical delegation to Algeria to help it fight Coved-19.</t>
-  </si>
-  <si>
-    <t>@BiomedJ @veryvirology Observation: South Africa is hit hard by TB. And banned HCQ. Worst Corona stats in Africa, which otherwise do great; using anti malarial and Ivermectin routinely, another observation. Well, much better than US and U.K. for sure.</t>
-  </si>
-  <si>
-    <t>UPDATE: #covid19science #COVID19 in Brazil: ➡️Percentage infected population 3.3% in São Paulo to 10.6% in Amazonas ➡️54% drop in reproduction number R following interventions ➡️R above 1 epidemic not yet under control 🔰Report https://t.co/lcFch0FxCt https://t.co/YoyCPfLAAg</t>
-  </si>
-  <si>
-    <t>New COVID-NET data reported more than 6000 #COVID19 hospitalizations. Of these almost 2000 had race/ethnicity info. When compared to residents in COVID-NET counties Non-Hispanic black people were disproportionately affected by COVID-19 hospitalizations https://t.co/dTvhftTxuV https://t.co/cei7elmBM7</t>
-  </si>
-  <si>
-    <t>President Donald Trump attending the recital of Quran verses to fight coronavirus.</t>
-  </si>
-  <si>
-    <t>📢#CoronaVirusUpdates: 📍#COVID19 India Tracker (As on 21 September 2020 08:00 AM) ➡️Confirmed cases: 5487580 ➡️Recovered: 4396399 (80.1%)👍 ➡️Active cases: 1003299 (18.3%) ➡️Deaths: 87882 (1.6%) #IndiaFightsCorona #IndiaWillWin #StaySafe Via @MoHFW_INDIA https://t.co/A1iirHpkQF</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: #COVID19 testing has become more affordable. Our testing strategy was to increase number of tests and to make it available in areas where most required i.e Andaman &amp;amp; Nicobar Islands Lakshadweep North-East at affordable prices: @ProfBhargava DG @ICMRDELHI https://t.co/yJ85fH0Cl1</t>
-  </si>
-  <si>
-    <t>ibuprofen can make coronavirus (COVID-19) worse.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India tests more than 9 lakh samples each day two days in a row. Total #COVID19 tests near a new peak of 4 crore. More than 1 crore tested in past 2 weeks. https://t.co/1LMYJ5XVwz https://t.co/uELDnJx4xE</t>
-  </si>
-  <si>
-    <t>2nd week of Jan 🇨🇳 had mapped the genome &amp;amp; shared it with WHO &amp;amp; with wider 🌍. We rapidly published a “how to” on building a PCR test for #COVID19 from our partner lab in 🇩🇪. In the 3rd week WHO identified &amp;amp; began contracting for validated production of these tests-@DrTedros</t>
-  </si>
-  <si>
-    <t>Vila Formosa's cemitery in São Paulo Brazil is opening graves to cause panic on population but there are no burials. The graves remain open.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: Major highlights of this week: More than 5 crore tests conducted so far. More than 33 lakhs patients have been recovered so far. Case fatality rate is continuously declining; currently stands 1.70%: Secretary @MoHFW_INDIA #StaySafe @ICMRDELHI https://t.co/AfoSxfiLKT</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: Assessment of #COVID Prevention: It has been estimated that the decision of lockdown by slowing down the progress of pandemic in India prevented 14–29 lakh cases and 37–78 thousand deaths. Details : https://t.co/lz6cP3ICfg #StaySafe #IndiaWillWin https://t.co/QXmTDM9Wiq</t>
-  </si>
-  <si>
-    <t>Some states have mixed antibody test results into what we thought were viral test result statistics. These antibody tests seem to be a relatively small but still significant percentage of the overall tests completed. From what we know most states have not done this.</t>
-  </si>
-  <si>
-    <t>RT @minhealthnz: No new cases of #COVID19 to report in New Zealand and 550000 registrations of the NZ COVID Tracer app have been recorded.…</t>
-  </si>
-  <si>
-    <t>_A vaccine for COVID-19 has been found._</t>
-  </si>
-  <si>
-    <t>Iranians have published a report saying that coronavirus is a biological warfare.</t>
-  </si>
-  <si>
-    <t>Canada’s top BDSM doctor says wear a mask, leash, tight leather to prevent spread of COVID-19 #cdnpoli #COVID19 https://t.co/1E7yDlIGBD https://t.co/bffEps28Iy</t>
-  </si>
-  <si>
-    <t>My God!
-Open admission of using Covid 19 as bioweapon!! https://t.co/OUtgBwphiL</t>
-  </si>
-  <si>
-    <t>CDC has given more than $200M to address #COVID19 health disparities among American Indian &amp;amp; Alaska Native people who have suffered a disproportionate burden of illness. Funding will broaden access to COVID-19 resources across tribal communities. https://t.co/MG8e5TWigl https://t.co/KwoPLuxG4g</t>
-  </si>
-  <si>
-    <t>Claims made in the viral video Plandemic include: that the virus was "manipulated" in a laboratory setting; that hydroxychloroquine is "effective against these families of viruses" and that wearing a mask "activates" the virus.</t>
-  </si>
-  <si>
-    <t>Coronavirus: North Yorkshire goes into 'full emergency mode' due to rise in cases https://t.co/fqEZaxa3P2</t>
-  </si>
-  <si>
-    <t>Unfortunately while this method makes the numbers closer in *some* cases it doesn't in many others. Here's a bonus chart (not in the whitepaper) that we generated during this analysis. It shows the range of possible specimen values compared to the CDC's reported number. https://t.co/ZzMgdnTLcG</t>
-  </si>
-  <si>
-    <t>Reese Witherspoon’s Julia Roberts’ And Mila Kunis’ Marriages Suffering Under Coronavirus Quarantine? https://t.co/W1VhJ76HBO</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: ▪️ India’s total recoveries cross 23 lakh recovery rate stands at 75.27% ▪️ A total of nearly 3.6 crore tests conducted; T…</t>
-  </si>
-  <si>
-    <t>🚓 Criminal inquiry launched into allegations of poor maternity standards at an NHS trust. https://t.co/Y7lYfCEln2</t>
-  </si>
-  <si>
-    <t>Wisconsin Governor Tony Evers’ administration deemed dentists non-essential.</t>
-  </si>
-  <si>
-    <t>Medical director at PHE Dr Yvonne Doyle says having both #COVID19 and the flu is a "very risky situation" as she encourages people who are invited for a flu vaccine to have it. #KayBurley Live updates: https://t.co/I0Ya5YFTvZ https://t.co/Qs5l3S0YFE</t>
-  </si>
-  <si>
-    <t>Fourteen new cases of #COVID19 have been reported in Nigeria: 13 in Lagos and 1 in Delta State As at 09:30 pm 9th April there are 288 confirmed cases of #COVID19 reported in Nigeria. Fifty-one have been discharged with seven deaths https://t.co/DuP2SGUiTy</t>
-  </si>
-  <si>
-    <t>AIIMS (Indian medical institute) team has said that Toddy has medicinal properties to cure coronavirus.</t>
-  </si>
-  <si>
-    <t>Acc to @MoHFW_INDIA as per the current evidence the period of infectivity starts 2 days prior to onset of #COVID19 symptoms &amp;amp; lasts up to 8 days. The extent &amp;amp; role played by asymptomatic #COVID infections in transmission still remain under investigation: https://t.co/HtiPH2KXcO https://t.co/rhyPPzUPsh</t>
-  </si>
-  <si>
-    <t>From a progress report on COVID-19 in the journal "Nature":
-"...Researchers used Vero cells — which do not express TMPRSS2 — in an early study that suggested that the drug chloroquine might work as a treatment for COVID-19.
-1/3</t>
-  </si>
-  <si>
-    <t>We also found that death data made it more difficult to interpret our metric. When there were major changes in Rt it was unclear if this was from changes in cases or deaths. Death data is still important to consider such as in a separate metric which we are working on.</t>
-  </si>
-  <si>
-    <t>A government minister claims that Papad help produce antibodies to fight COVID-19 infection.</t>
-  </si>
-  <si>
-    <t>.@WHO reconsiders the airborne nature of #COVID19. https://t.co/RGcG9pddNy</t>
-  </si>
-  <si>
-    <t>After all the depressing news, came across something so true and motivating. My level of respect for Mr Ratan Tata is inexplicable...</t>
-  </si>
-  <si>
-    <t>Texas reported 4k new confirmed cases yesterday with some caveats. Today the state reported 3129 — without the caveats. https://t.co/1pGhGkmILK</t>
-  </si>
-  <si>
-    <t>A psychiatrist fears that people may be using COVID-sorting similar to serosorting in AIDS as a way to choose a sexual partner. https://t.co/esecZBkz4W</t>
-  </si>
-  <si>
-    <t>Tuberculosis (TB) has a higher death rate than coronavirus.</t>
-  </si>
-  <si>
-    <t>The Centers for Disease Control and Prevention applied for an "illegal" patent related to the virus that causes SARS.</t>
-  </si>
-  <si>
-    <t>Trump announced that Roche Medical Company will launch the vaccine next Sunday, and millions of doses are ready from it !!!</t>
-  </si>
-  <si>
-    <t>Acc to @WHO people should NOT wear #facemasks while exercising as sweat can make a #mask wet/damp which may reduce the ability to breathe comfortably. If you are exercising outside kindly maintain a distance of 2m else you may workout at home. #COVID19 #Covid_19 #COVIDー19 https://t.co/IAqtKAyRL7</t>
-  </si>
-  <si>
-    <t>We’re starting to see evidence that long-term exposure to air pollution—which disproportionately affects communities of color &amp;amp; low-income communities—is linked to COVID-19 death rates. It's past time we treat pollution like the threat to our health it is. https://t.co/3GD15s3xSy</t>
-  </si>
-  <si>
-    <t>We are pleased to announce the inclusion of the General Sani Abacha State Specialist Hospital Yobe to the NCDC Molecular Laboratory Network. There are currently 62 laboratories with the capacity to test for #COVID19 in the #NCDCLabNetwork #TakeResponsibility https://t.co/DZjuSllsPc</t>
-  </si>
-  <si>
-    <t>A video about the coronavirus circulates in WhatsApp that, when opened, hacks the cell phone "in 10 seconds".</t>
-  </si>
-  <si>
-    <t>Nearly 22000 deaths have occurred in long-term facilities in the South—almost 14000 in June July and August. Georgia and Florida have seen their highest death tolls in the past four weeks—over 350 a week in Florida and over 100 a week in Georgia. https://t.co/RC56clVQ1e</t>
-  </si>
-  <si>
-    <t>RT @MoHFW_INDIA: #CoronaVirusUpdates #IndiaFightsCorona - Total #COVID19 Recoveries are 677422. - Recovery rate stands at 62.86%. -…</t>
-  </si>
-  <si>
-    <t>Every worker on the front lines of the fight against COVID-19 deserves protections and accommodations that keep them and their families safe. I'm glad to see states stepping up to support folks — employers must do the same. https://t.co/QClURuStbV</t>
-  </si>
-  <si>
-    <t>In Latest Move to Stop Coronavirus, Trump Urges Fed to Cut Interest Rates His Heavily Indebted Company Pays https://t.co/0wGbfhqtOP</t>
-  </si>
-  <si>
-    <t>Brazil’s #coronavirus crisis is out of control. https://t.co/01ODoDGGyq https://t.co/O1kzbfpREW</t>
-  </si>
-  <si>
-    <t>Govt is providing money to bereaved families of COVID-19 victims.</t>
-  </si>
-  <si>
-    <t>@HSELive You should also high-dose with Vitamin D. Extensive clinical evidence that sufficient Vitamin D reduces severity of Covid-19. Hospital protocol for Covid-19 in France to immediately test for and treat Vit D deficiency. Chronic Vit D deficiency in Ireland – why no public campaign?</t>
-  </si>
-  <si>
-    <t>NEWS! ‘Loss of taste’ added to COVID-19 symptoms as government recommends self-isolation for anyone who recently enjoyed Mrs Brown’s Boys https://t.co/5ZhFvnHWJb https://t.co/QAjJtAeo7e</t>
-  </si>
-  <si>
-    <t>@OdoyleCharlotte @GovLarryHogan @GovRonDeSantis Just noting: @GovRonDeSantis and the Florida health department do actually put out the most complete statistics that we've seen from a state government. -@alexismadrigal</t>
-  </si>
-  <si>
-    <t>#Coronavirus surges in Arizona. https://t.co/zOIdYIEnGK</t>
-  </si>
-  <si>
-    <t>Colombia is the country with less cases and deaths for coronavirus per inhabitant in America.</t>
-  </si>
-  <si>
-    <t>10 Road Trip Essentials https://t.co/sB9hzYG2MK #coronavirus #travel #vacation #list #tipsadvice #roadtrips</t>
-  </si>
-  <si>
-    <t>@tangerinelaw @JohnsHopkinsEPI Some of it is time. It takes time for the deaths to come. The other part is that it's spiky: deaths come in much higher numbers when the population is vulnerable and the hospital system gets overwhelmed (Italy) or gets surprised (KirklandWA). -@alexismadrigal</t>
-  </si>
-  <si>
-    <t>Practice social distancing by putting space between yourself and others. Continue to practice healthy habits like washing your hands for at least 20 seconds and staying home if you’re sick to help slow the spread of #COVID19. Learn more: https://t.co/tt49zOn1hf. https://t.co/jiv8rCeZzY</t>
-  </si>
-  <si>
-    <t>A banner with a swastika, ???Trump??� and ???Pence??� is from a Michigan coronavirus protest.</t>
-  </si>
-  <si>
-    <t>RT @Surgeon_General: Are you concerned about possible #COVID19 symptoms and/or exposure? Consult the @apple screening tool developed w/ @Wh…</t>
-  </si>
-  <si>
-    <t>Pictures of people stranded on hospital beds claimed to be Italians not coping with the pressures of COVID-19 cases; India should learn from Italy's mistakes and not step out of the house in the 21-day lockdown</t>
-  </si>
-  <si>
-    <t>Some of the worst viral disease outbreaks in recent years – SARS, Ebola and likely #coronavirus – originated in bats, a new study has proposed an answer to why diseases that originate in bats are so deadly. https://t.co/wYZBDVrqsH #coronavirus</t>
-  </si>
-  <si>
-    <t>Coronavirus: John Lewis Partnership axes staff bonus as it slumps to £635m loss https://t.co/kQJOCJTx9T</t>
-  </si>
-  <si>
-    <t>Five new cases of #COVID19 have been reported in Nigeria: 3 in FCT &amp;amp; 2 in Oyo State As at 08:00 pm 27th March there are 70 cases of confirmed #COVID19 reported Nigeria. 3 have been discharged with 1 death. https://t.co/ptbxknBV7b</t>
-  </si>
-  <si>
-    <t>Covid-19 totally confused about what it’s allowed to do where https://t.co/hKCZmLsibB</t>
-  </si>
-  <si>
-    <t>Coronavirus: 'COVID-19 only takes white people': Researchers battle disease myths in South Africa https://t.co/h16rbDeJaT</t>
-  </si>
-  <si>
-    <t>For data observers one key takeaway is that the lag in reporting deaths may vary widely between states that use the different methods.</t>
-  </si>
-  <si>
-    <t>It's not entirely clear how the record numbers of new cases will translate into deaths from COVID-19. Here's why it's complicated: https://t.co/ZXFERIyS6I https://t.co/BgyADNSieh</t>
-  </si>
-  <si>
-    <t>Image of COVID-19 infected Indonesian doctor Hadio Ali watching his daughters from a distance as he bids them final goodbye; the image is said to be posted by his wife.</t>
-  </si>
-  <si>
-    <t>13464 cases of #COVID19Nigeria Discharged: 4206 Deaths: 365 A breakdown of cases by state can be found via https://t.co/A0NkMvZqE5 #TakeResponsibility https://t.co/toGrZ6v2AD</t>
-  </si>
-  <si>
-    <t>“This is about giving the hospitals that capacity they need to get people through the doors.” Health minister Edward Argar explains the additional £150 million funding to expand and upgrade hospital A&amp;amp;Es in England. #KayBurley: https://t.co/apswxjCfGw https://t.co/xnHsJRblFF</t>
-  </si>
-  <si>
-    <t>Schedules for the sale of milk newspapers grocery and medical stores have been issued by the Mumbai Police commissioner.</t>
-  </si>
-  <si>
-    <t>490 new cases of #COVID19Nigeria; Lagos-142 FCT-60 Bayelsa-54 Rivers-39 Delta-37 Oyo-30 Kaduna-26 Imo-23 Enugu-19 Kwara-17 Gombe-11 Ondo-10 Bauchi-8 Ogun-7 Borno-6 Benue-1 17148 confirmed 5623 discharged 455 deaths https://t.co/wou7Q1PfIo</t>
-  </si>
-  <si>
-    <t>Researchers warned of a ticking coronavirus time bomb in 2007. 💣 https://t.co/8V4flWNSKr via @undark</t>
-  </si>
-  <si>
-    <t>U.S. pediatric COVID-19 cases have jumped 90% in 4 weeks. https://t.co/nSdAf6C3Me</t>
-  </si>
-  <si>
-    <t>The recent spike in new #COVID19 cases in India can be attributed to aggressive testing &amp;amp; tracing mechanism employed by GoI. This spike in cases is not worrisome as long as the diagnosis is done in time &amp;amp; the #MortalityRate remains low with high #RecoveryRate. (1/2) https://t.co/Ug4akjc15A</t>
-  </si>
-  <si>
-    <t>The variation between states/territories is also fascinating. DC told the Washington Post it doesn't report probables because it doesn't have any. Delaware meanwhile with a comparable total case count reports nearly 1000 probable cases.</t>
-  </si>
-  <si>
-    <t>Goodnight this is where the US stands now :: 🏠✔️Stay At Home: 37 States ....🚶‍♀️Social Distancing: 11 States 👀 Limited Intervention: 1 State</t>
-  </si>
-  <si>
-    <t>Mixing aspirin paracetamol honey and lemon cures COVID-19.</t>
-  </si>
-  <si>
-    <t>Six coronavirus cases confirmed in Wichita Kansas.</t>
-  </si>
-  <si>
-    <t>RT @DDIndialive: #COVID19 Testing Status: ICMR (@ICMRDELHI) tests a total of 144910 samples from 130792 individuals as on 9th April 202…</t>
-  </si>
-  <si>
-    <t>The Chairman of the Republican Party of Texas said the recovery rate for COVID-19 is 99.9% in Texas. That’s False. @PolitiFactTexas https://t.co/GmUXoVT2Dh https://t.co/ltIHWPchJM</t>
-  </si>
-  <si>
-    <t>Dr. Dana Meaney-Delman was a part of the emergency responses to Zika and the Ebola outbreak. Read her experience as she helped take on #COVID19: https://t.co/3v15grreJZ. https://t.co/pbKnNMF6HR</t>
-  </si>
-  <si>
-    <t>RT @drharshvardhan: India sees an unprecedented surge in Recoveries ! 👉Nearly 75000 recoveries in last 24 hours 👉Total number of Recover…</t>
-  </si>
-  <si>
-    <t>COVID-19 Update ​ ​ We have 5 new cases of COVID-19 in the community. 4 are Auckland-based and 1 is connected to the 2 Tokoroa cases and is currently in Waikato Hospital. ​ ​ This brings our total number of active cases to 101.</t>
-  </si>
-  <si>
-    <t>417 new cases of #COVID19Nigeria; Lagos-207 Kaduna-44 Ondo-38 Abia-28 Anambra-21 Plateau-20 Bauchi-13 Oyo-9 Ebonyi-9 Delta-7 Edo-7 Enugu-6 Niger-3 Gombe-2 Ogun-1 FCT-1 Kano-1 49485 confirmed 36834 discharged 977 deaths https://t.co/nNc9UYKU34</t>
-  </si>
-  <si>
-    <t>In the latest updates from today #NewYork is now 🟢 green on our threat scale ➡️ on track to contain COVID. This change is due to the number of #contacttracers they've recently hired and is a big testament to the state has done to control COVID. https://t.co/wcSmatoG5C</t>
-  </si>
-  <si>
-    <t>COVID-19 will result in tens of thousands of excess cancer deaths according to a new NCI model. https://t.co/rIxuqqG0rw #EHA2020 https://t.co/7Q9WeuPTqc</t>
-  </si>
-  <si>
-    <t>For a breakdown of cases by states in real time please see https://t.co/zQrpNeOfet Currently; Lagos- 24 FCT- 6 Ogun- 2 Ekiti- 1 Oyo- 1 Edo- 1 Total: 35 confirmed cases #COVID19Nigeria</t>
-  </si>
-  <si>
-    <t>The departament of Guaviare in Colombia has 10 cases of coronavirus.</t>
-  </si>
-  <si>
-    <t>We’re still learning about how #COVID19 affects animals but it appears that people can spread the virus to animals in some situations. Until we know more limit contact with pets if you are sick or feeling sick. For more info see: https://t.co/H8NS2GTd4x. https://t.co/uGEbo1su2O</t>
-  </si>
-  <si>
-    <t>The governor of Sao Paulo contracted COVID-19 after being vaccinated with the Sinovac Biotech vaccine.</t>
-  </si>
-  <si>
-    <t>Iranian Islamic medicine 'specialist' claims camel urine cures coronavirus infections iran". Arab News</t>
-  </si>
-  <si>
-    <t>The WHO confirmed asymptomatic persons can't transmit the coronavirus and are not infectious</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona Focused and coordinated implementation of “TEST TRACK TREAT” strategy focusing on early identification and effective clinical management has resulted in low and continuously sliding Case Fatality Rate (CFR). https://t.co/fWpoNGfk6W</t>
-  </si>
-  <si>
-    <t>Says Alexandria Ocasio-Cortez tweeted, ???It???s vital that Governors maintain restrictions on businesses until after the November Elections because economic recovery will help Trump be re-elected. A few business closures or job losses is a small price to pay to be free from his presidency. #KeepUsClosed.??�</t>
-  </si>
-  <si>
-    <t>Video clip of a massive stadium converted into a graveyard claimed to be scenes from Italy related to the ongoing COVID-19 outbreak.</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: Studies show that in 68% of #COVID2019 patients use of remdesivir reduces oxygen demand. However while the manufacturer @G…</t>
-  </si>
-  <si>
-    <t>Bollywoof actor Aamir Khan has anonymously donated Rs 15000 to people living in a slum.</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: #CoronaWatch ◾ 3936747 total confirmed cases ◾ 3037151 cases cured/recovered ◾ 46679145 samples tested Here's the…</t>
-  </si>
-  <si>
-    <t>Patients who die in hospitals are "intubated" to "explode their lungs."</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: On a steady march India conducts a total of nearly 3.6 crore tests Tests Per Million (TPM) scale a new peak of 26016 #StaySafe #IndiaWillWin https://t.co/FcDGUNwG3x</t>
-  </si>
-  <si>
-    <t>High levels of testing sustained over a period of time in widespread areas enable to diagnose cases early and facilitate seamless isolation and hospitalisation. This eventually leads to low mortality rate.</t>
-  </si>
-  <si>
-    <t>An Instagram post is claiming Covid-19 tests tainted with coronavirus have been in circulation for “many months”.</t>
-  </si>
-  <si>
-    <t>https://t.co/JDv5GVMioP is the most comprehensive body of data on the effects of #COVID19 on patients with cancer. https://t.co/Zk8FaSHKIM #CCC19 @covid19nccc</t>
-  </si>
-  <si>
-    <t>When will a Covid-19 vaccine be available to the public? No one's sure yet but the target is sometime in early 2021. https://t.co/uwEPWev9HO</t>
-  </si>
-  <si>
-    <t>If you had #COVID19 and will not have a test to see if you are still contagious only leave your sick room and home when ALL of the following are true: •No fever for at least 72 hours (3 days) •Other symptoms have improved •It has been 7 days since you started feeling sick https://t.co/1FOcLeJCz5</t>
-  </si>
-  <si>
-    <t>133 people linked to the cluster have been moved to the Auckland facility including 65 positive cases. ​ ​ ​ There are 6 people receiving Hospital care for COVID-19. 1 is in Auckland City Hospital 4 are in Middlemore and 1 is in Waikato Hospital.</t>
-  </si>
-  <si>
-    <t>While addressing the nation PM Mahinda Rajapaksa stated that opposition did not support the supplementary budget proposal for COVID-19 relief measures hence there is no point in reconvening the Parliament.</t>
-  </si>
-  <si>
-    <t>@TheCyberDagger @NagaTrooper @BepDelta US carriers catching fire magickly
-Chinese gunsupplies cached in US
-CN testing TW waters and airspace
-rioting in the US suddenly just in right time
-doctor dieing after confirming Corona is a chinese bioweapon
-makes you think</t>
-  </si>
-  <si>
-    <t>According to the latest official figures there have been a further 18 COVID-related deaths and 3899 new #COVID19 cases in the UK. For the latest #coronavirus updates click below 👇 https://t.co/3qV9VizMhu</t>
-  </si>
-  <si>
-    <t>MA's case is instructive on why this is important. MA reported a cumulative 92 cases Tuesday. Wednesday's total went up only to 95. Is that because they didn't test many people (bad) or they tested a lot and only got three positives (good)?</t>
-  </si>
-  <si>
-    <t>Chief executive of Tesco Dave Lewis encourages people to "continue to buy as normal" amid fears the new #COVID19 restrictions could lead to panic buying. Get live #coronavirus updates: https://t.co/7c8W5pWNmp https://t.co/HmJHKyLcqG</t>
-  </si>
-  <si>
-    <t>NEWS! Nobody north of Watford has caught Coronavirus because they're too hard https://t.co/6HmmC15tna https://t.co/IEJV2hyjkl</t>
-  </si>
-  <si>
-    <t>Our total number of confirmed cases of COVID-19 is now 1172 which is the number we report to the World Health Organization.</t>
-  </si>
-  <si>
-    <t>Mouthwash kills and cures the new coronavirus</t>
-  </si>
-  <si>
-    <t>Alabama Town Fights PAN-demic https://t.co/ucSj8aIcqd #america #coronavirus #pandemic #covid19 #kitchen #warnings</t>
-  </si>
-  <si>
-    <t>Yesterday our laboratories completed 3007 tests bringing the total number of tests completed to date to 291994.</t>
-  </si>
-  <si>
-    <t>The latest CDC #COVIDView report summarizes new data on #COVID19-like illnesses hospitalization rates and deaths. Check it out here: https://t.co/zP4VYlo0Pb https://t.co/cieOfqU7Qh</t>
-  </si>
-  <si>
-    <t>@PiaBizLaw Kia ora Recovered cases are people who had the virus are at least 10 days since onset and have not exhibited symptoms for 48 hours and have been cleared by the health professional responsible for their monitoring.</t>
-  </si>
-  <si>
-    <t>Congress MP Dr. Shashi Tharoor praised LDF government in Kerala India for their COVID-19 relief work.</t>
-  </si>
-  <si>
-    <t>Social media posts claim that actors were caught in the act staging fake COVID-19 cases.</t>
-  </si>
-  <si>
-    <t>“It really is tough trying to enforce restrictions.” Mayor of Liverpool Joe Anderson explains the difficulties of enforcing COVID-19 rules in the city and says Merseyside Police are “working really hard”. #KayBurley: https://t.co/Opc8Z4tNib https://t.co/cG8WW2z4l0</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: With more patients recovering and being discharged from hospitals and home isolation (in case of mild and moderate cases) India's #COVID19 total recoveries have crossed 23lakh today. Details : https://t.co/G0YZKwGL2T @MoHFW_INDIA @ICMRDELHI #StaySafe</t>
-  </si>
-  <si>
-    <t>Coronavirus can be transmitted through imported goods</t>
-  </si>
-  <si>
-    <t>Sometimes these people seek testing because they have a respiratory illness &amp;amp; it seems that an acute non-COVID respiratory illness then creates the condition where a residual COVID-19 virus is detected. Over the past two months we have seen four different examples of this.</t>
-  </si>
-  <si>
-    <t>RT @drharshvardhan: #COVID19 UPDATE 👉The total recovered cases stand at 3859399. 👉The gap between Recovered cases &amp;amp; Active cases has…</t>
-  </si>
-  <si>
-    <t>#Coronavirus: Another 4926 people have tested positive in the UK - the highest daily figure since 7 May https://t.co/ir2icE7Lj5</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: 56013 #COVID patients have recovered in the last 24 hours. India's Recovery Rate amongst the #COVID19 patients today stands at 76.24%. 10 States/UTs are faring better in terms of Recovery Rate than the national average. Details: https://t.co/iyOO4WIyVJ https://t.co/bDRoewd6WG</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona In the last one month #COVID19 Recovery Rate has shot up from 48.20% to 68.32%. Effective Clinical Management based on a Standard of Care approach has led to more patients recovering and lesser fatality. https://t.co/atrbHjZaxn</t>
-  </si>
-  <si>
-    <t>There has been no death due to COVID-19 in Israel as they mix lemon and baking soda in their tea. This combination kills coronavirus.</t>
-  </si>
-  <si>
-    <t>Trump blamed the Barack Obama administration for making "a decision" that delayed COVID-19 testing by the Trump administration.</t>
-  </si>
-  <si>
-    <t>Yesterday our laboratories completed 2830 tests of which 341 were in managed isolation and quarantine facilities. That brings the total number of tests completed to date to 451616.</t>
-  </si>
-  <si>
-    <t>Chinese not allowed in supermarket . It's started in Australia...</t>
-  </si>
-  <si>
-    <t>As the #coronavirus clings on reasserting itself in countries like the UK and US the hopes and fears of politicians scientists and the rest of humanity centre on a relatively small number of vaccines currently in development https://t.co/8S2nyDR04o</t>
-  </si>
-  <si>
-    <t>API users beware: there is a major caveat in the testing data today as North Carolina removed 220k tests from its cumulative numbers. https://t.co/xR9uxFTX5f</t>
-  </si>
-  <si>
-    <t>#FACTCHECK : @WHO has repeatedly said that a vaccine of #COVID2019 is not yet available. Yet #FakeNews keeps emerging. Here is #Factchecking one more such claim https://t.co/ozvV92FE8s</t>
-  </si>
-  <si>
-    <t>California has announced a frustrating decision. After 6 weeks of counting people tested they have begun reporting total tests completed with no attempt to resolve them to an individual patient. https://t.co/aC11ZDIjHx https://t.co/6CZECmZcyo</t>
-  </si>
-  <si>
-    <t>The memorandum requires states to enter a financial agreement with the federal government and pick up 25% of the tab (or $100) for each person a provision that was criticized by governors as many states continue to struggle financially due to COVID-19 https://t.co/RwbFsqkyih</t>
-  </si>
-  <si>
-    <t>Based on best available data Maine has only used 2% of their ICU headroom. This suggests there is likely enough capacity to absorb a wave of new COVID infections. https://t.co/plDKAS2Zpi</t>
-  </si>
-  <si>
-    <t>Strong voices like @VinGuptaMD are vital during this time. "Large portions of this country are not corona free" https://t.co/fk67uMIjV0</t>
-  </si>
-  <si>
-    <t>big surge in New Zealand. It's terrible. We don't want that.</t>
-  </si>
-  <si>
-    <t>A large study across hundreds of hospitals from @TheLancet shows that treatment with hydroxychloroquine did not result in any improvements of COVID patients. Read the full study here: https://t.co/IcQnO0CImB</t>
-  </si>
-  <si>
-    <t>Sometimes when a state reports a large number of deaths it is because they caught up on a reporting backlog of deaths that occurred long in the past. These are recent deaths reported with standard lag. 58 of the 72 deaths in today's numbers occurred in the last five days. https://t.co/joFSL2xEom</t>
-  </si>
-  <si>
-    <t>Coronavirus: New local lockdown measures in parts of North West Midlands and West Yorkshire https://t.co/hzhIAiZozu</t>
-  </si>
-  <si>
-    <t>FDA warns no more use of #hydroxychloroquine to treat #COVID19. https://t.co/ZGMZaOUc69</t>
-  </si>
-  <si>
-    <t>Violating lock down is COMMON for politicians..Don't be ashamed of them..! During d pandemic , Gujarati 2nd Worst .. Flying to a flame.."force" him under DMA 2005..@vijayrupanibjp @PMOIndia @HMOIndia @DeepalTrevedie https://t.co/UjSOSE2sYR</t>
-  </si>
-  <si>
-    <t>The first test results for the Moderna vaccine are disappointing.</t>
-  </si>
-  <si>
-    <t>After reviewing the current research available on the drugs the FDA determined that the drugs do not meet "the statutory criteria" for emergency use authorization as they are unlikely to be effective in treating COVID.</t>
-  </si>
-  <si>
-    <t>Our daily updated is published. States reported 618k tests and 38k cases today. The death toll is 1170. https://t.co/6TdKTzT1hK</t>
-  </si>
-  <si>
-    <t>A post claims studies show the flu shot will increase a person’s susceptibility to COVID-19.</t>
-  </si>
-  <si>
-    <t>Two new labs have been activated for inclusion in the NCDC Molecular Laboratory Network: 🧪 Federal Medica Centre GeneXpert Laboratory Birnin Kebbi. 🧪Plateau State Human Virology Research Center (PLASVIREC) Plateau. #TakeResponsibility https://t.co/FGSqlmKnSf</t>
-  </si>
-  <si>
-    <t>???59 people die as pastor gives them dettol to drink in church to prevent coronavirus.??�</t>
-  </si>
-  <si>
-    <t>All vegetarian Sanatan Dharmis only need little care about Social Distancing and enjoy long healthy life.</t>
-  </si>
-  <si>
-    <t>Condom Sales Are At An All-Time High https://t.co/efRTGJCJXa #coronavirus #condoms #factory #prophylactics</t>
-  </si>
-  <si>
-    <t>A message claiming that posting anything related to coronavirus on social media has been declared a punishable offence has been doing rounds on various messaging apps.</t>
-  </si>
-  <si>
-    <t>Coronavirus: Travel and hospitality stocks hit by fears of second national lockdown https://t.co/2o6EEoUDzp</t>
-  </si>
-  <si>
-    <t>Seen those pictures of dolphins and swans returning to Venice's canals? They've been debunked Today we launch CoronaCheck a newsletter with the latest debunked COVID-19 misinformation from around the world: https://t.co/b5r37qINqy #factcheck #CoronaVirusFacts #DatosCoronaVirus</t>
-  </si>
-  <si>
-    <t>#HCPs: You may feel concerned about patients increasing their use of alcohol or other substances during COVID-19. Here are some answers to questions about #COVID19 risks and treatment options for patients who use drugs or have a substance use disorder: https://t.co/vAEXTXPs8S. https://t.co/yDTiiIp02r</t>
-  </si>
-  <si>
-    <t>A low percentage (0.5%) of COVID tests were positive which suggests enough widespread aggressive testing in Maine to detect most new cases. Identifying and isolating new cases can help contain COVID without resorting to lockdowns. https://t.co/uoU8p925U9</t>
-  </si>
-  <si>
-    <t>Cases popped back up over 23k but—because of that huge number of tests—the positivity rate went back under 6%. https://t.co/UrwSEMvsa5</t>
-  </si>
-  <si>
-    <t>Neil Diamond Says He is Altering the Words to “Sweet Caroline” to Help in the Fight Against COVID-19 https://t.co/6vqCp8OrPF #neilyoung</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: .@MoHFW_INDIA issues SOP for partial reopening of schools for students of 9th to 12th classes on a voluntary basis for taki…</t>
-  </si>
-  <si>
-    <t>Our default logic has been to use the "positive" cases only rather than positive and suspected. But on-the-ground reporting shows that both buckets of patients create strain on the hospital system. Until someone has tested negative PPE and caution must be used.</t>
-  </si>
-  <si>
-    <t>93% of the (COVID-19) cases in the state of Illinois have come from Chicago.</t>
-  </si>
-  <si>
-    <t>UPDATE ➡️Deaths registered in England &amp;amp; Wales for the week ending 3 July 2020 released by @ONS ➡️Using this data we present updated estimates of expected deaths &amp;amp; excess non-COVID-19 deaths during the #COVID19 pandemic 🔰Read full report https://t.co/tZchlfBxTg https://t.co/mD4IpP8Qvm</t>
-  </si>
-  <si>
-    <t>Latest: California fires, camel racing, coronavirus tribute; The World in Photos, Sept. 28 https://t.co/XrOOwcdiPg</t>
-  </si>
-  <si>
-    <t>Bharat Biotech’s Vice President Did Not Under Go Clinical Trial For His Company’s #COVID19 Vaccine ‘Covaxin’. An Image with false claim doing the rounds on social media. #covaxine #COVIDー19 #FactCheck https://t.co/pQWzblPEuV</t>
-  </si>
-  <si>
-    <t>The novel coronavirus can be cured by one bowl of freshly boiled garlic.</t>
-  </si>
-  <si>
-    <t>#Feeling #worried about the #coronavirus. Take the #homeopathic #remedy Arsenicum 30C once if there are many #cases in your #area, and you will #feelbetter. It might even keep you #safe.</t>
-  </si>
-  <si>
-    <t>In 1986, the founder of the Times Square Church prophesied that he saw ???a plague coming on the world and the bars and church and government will shut down,??� with New York City especially hard hit.</t>
-  </si>
-  <si>
-    <t>Thoughts on the Lancet and NEJM #COVID19 retractions. https://t.co/ua0mnlBlRE</t>
-  </si>
-  <si>
-    <t>Fox News is Reporting That Several of its Employees Now Have The C-19 Virus https://t.co/G2pp3lwfgV #donaldtrump #nancypelosi</t>
-  </si>
-  <si>
-    <t>The Philippines does not have the fastest rising number of COVID-19 cases in the Western Pacific Region as classified by the World Health Organization.</t>
-  </si>
-  <si>
-    <t>TV Globo used images of a collective funeral for the victims of a shipwreck in Lampedusa in 2013 to illustrate a story about deaths by COVID-19 in Italy.</t>
-  </si>
-  <si>
-    <t>Another Doctor lost due to COVID-19 ?
-**********
-Her last message on twitter yesterday.
-"Hi friends not coping with #Covid 19. Going to be hooked up to the ventilator sometime today. Remember me, my smile to you. Thank U 4 Ur friendship. Will miss Ull. Be safe take this deadly virus seriously. Luv u guys, " . &lt;3
-#Dr. Aisha
-She passed away today! Rest in Peace...!!
-Inna lillahi wa inna ilaihi rajeoon</t>
-  </si>
-  <si>
-    <t>You can prevent COVID-19 by avoiding cold drinks night baths soda and sweets.</t>
-  </si>
-  <si>
-    <t>Turmeric and lemon are two simple, cheap and handy things you can use regularly to fight #CoronaVirus. Homemade rasam is also very useful.” The archived version of the post can b</t>
-  </si>
-  <si>
-    <t>All of our caveats about hospitalization data remain. It would not be surprising to see hospitalizations creep back up as the data quality improves. For more details see: https://t.co/wLbFSPAfZW</t>
-  </si>
-  <si>
-    <t>_A video has been viewed millions of times in multiple posts on Facebook Weibo and Twitter alongside a claim it shows US Vice President Mike Pence delivering empty boxes to a hospital for a publicity stunt during the coronavirus crisis. The claim gained traction online after the the clip was aired on the US television show Jimmy Kimmel Live! hosted by comedian Jimmy Kimmel._</t>
-  </si>
-  <si>
-    <t>Spraying from the air triggers "chemtrails (chemical trails) lung" problems</t>
-  </si>
-  <si>
-    <t>New York schools add a COVID-19 vaccine to the mandatory school schedule.</t>
-  </si>
-  <si>
-    <t>Even during #COVID19 if you have a medical emergency seek medical care without delay. Learn more @CDCMMWR: https://t.co/hzHCrPrfN6. https://t.co/lkhZtoy47R</t>
-  </si>
-  <si>
-    <t>Health Secretary Matt Hancock says £500 isolation support payments will be made available from next Monday for people on low incomes who have to self-isolate. Get live updates here: https://t.co/Ag2kUSA09z https://t.co/n6IWcMznbK</t>
-  </si>
-  <si>
-    <t>A Pentagon study found that people who get the flu vaccine are 36% more likely to get COVID-19.</t>
-  </si>
-  <si>
-    <t>The NZ COVID Tracer app has now recorded 405000 registrations an increase of 25000 from yesterday. 15500 QR posters that have been displayed businesses that represents about 1/4 of active businesses people would likely visit like retail or hospitality venues</t>
-  </si>
-  <si>
-    <t>The positive rate continues to climb in the South and West. In the South the percentage of tests coming back positive has roughly doubled in the last month. https://t.co/oJBuCYn7ei</t>
-  </si>
-  <si>
-    <t>#ERSCongress will dissect the debate of the value/detriment of smoking in #COVID19 patients. https://t.co/AkiZnEZ6Hq</t>
-  </si>
-  <si>
-    <t>@WeVotedToLeave @PathogenScribe In India they are prescribing antihistamines daily as part of their routine prescriptions for home management of mild covid.</t>
-  </si>
-  <si>
-    <t>The latest updates from the Ministry of Health For the 14th day in a row there are no new cases of COVID-19 to report in New Zealand. Our total number of confirmed cases remains at 1154. This is the number we report to the World Health Organisation. https://t.co/WRzffjjbtl</t>
-  </si>
-  <si>
-    <t>This week we’ll reach 20 million registered cases of #COVID19 and 750 thousand deaths. Behind these statistics is a great deal of pain and suffering. Every life lost matters-@DrTedros</t>
-  </si>
-  <si>
-    <t>#CoronaCheck: Are Victoria's recent #COVID19 outbreaks related to the Black Lives Matter protests? #qanda #factcheck https://t.co/x7dXUHRUcD #coronavirusfacts</t>
-  </si>
-  <si>
-    <t>Given the devastating consequences on children youth and our societies as a whole the decision to close schools should be a last resort temporary and only at a local level in areas with intense #COVID19 transmission-@DrTedros</t>
-  </si>
-  <si>
-    <t>The total number of confirmed cases of COVID-19 is 1207 which is the number we report to the @WHO The woman in her 20s - travelled from Afghanistan via Dubai and arrived on July 14. She was on flight EK448 from Dubai to Auckland.</t>
-  </si>
-  <si>
-    <t>_An image has been shared hundreds of times in multiple Facebook posts in August 2020 which claim it shows ???Chinese tourists allowed to go out of the Auckland bubble??�. The posts were shared after New Zealand's government reimposed a coronavirus lockdown on the city of Auckland after it recorded the country???s first local transmissions of COVID-19 in more than 100 days._</t>
-  </si>
-  <si>
-    <t>Video of an elderly woman struggling to breathe lying over what seems to be a plastic bag. According to the post she was inside a bag at a hospital morgue and was rescued by her relatives.</t>
-  </si>
-  <si>
-    <t>By known positive tests the 10 states with the highest per capita number of cases are: Washington New York Colorado Massachusetts Louisiana Rhode Island New Jersey South Dakota New Hampshire Georgia</t>
-  </si>
-  <si>
-    <t>Increased testing isn’t the reason for the surge in coronavirus cases — Donald Trump's failed leadership is. https://t.co/j7vKxnlaj4</t>
-  </si>
-  <si>
-    <t>With today’s three new cases and 16 additional recovered cases our total number of active cases is 83.Of those 28 are imported cases in MIQ facilities and 55 are community cases.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: 📍MHA issues new Guidelines 📌#Unlock4 opens up more activities outside Containment Zones ✅Strict enforcement of #Lockdown in Containment Zones till 30th September 2020 Details: https://t.co/0fH0OEbzYD #StaySafe #IndiaWillWin https://t.co/oAnDJRjOuh</t>
-  </si>
-  <si>
-    <t>The novel coronavirus was ???man-made.??�</t>
-  </si>
-  <si>
-    <t>Ministry of Home Affairs in India has directed people to not post anything related to coronavirus.</t>
-  </si>
-  <si>
-    <t>Donald Trump promised to bring back jobs, but his policies crushed the manufacturing sector—and that was true even before COVID-19.
-I’ll revitalize American manufacturing and innovation and create millions of good-paying jobs so we can build back better. https://t.co/HrOOkWWQof</t>
-  </si>
-  <si>
-    <t>Second wave of PPE shortage is here. https://t.co/cVCpPEsCmY</t>
-  </si>
-  <si>
-    <t>Chinese scientists says COVID-19/coronavirus could have originated from a government laboratory. Which predicted in fiction novel in 1981, mystery? 
-#Coronavirus https://t.co/luZk4y4o6m #coronavirus https://t.co/YUevwDzkmA</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: India scales a new peak of 5 cr total #COVID tests Tests Per Million on a continuous rise pegged at 36703 today #StaySafe #IndiaWillWin https://t.co/6rS9hQfBv3</t>
-  </si>
-  <si>
-    <t>If you're a user of the data this will affect your time series. But this brings California data more in line with the way we track the rest of the nation and we hope we don't have to deal with this issue again.</t>
-  </si>
-  <si>
-    <t>#coronavirus this is extremely scary and terrifying. Drone footage shows the empty streets of Wuhan, China under its #CoronaVirus quarantine. (QuickTake) https://t.co/OwB7Afta9L</t>
-  </si>
-  <si>
-    <t>A video of a coronavirus suspect found in Hazipur (Bihar India) prison.</t>
-  </si>
-  <si>
-    <t>#HCPs: Today at 2pm ET log in to COCA Facebook profile or call in. COCA Call Topic: #COVID19 Update: Optimization Strategies for Healthcare Personal Protective Equipment (PPE). Learn more about the event at https://t.co/lVZEjLOXmH. https://t.co/8K0IaufKLI</t>
-  </si>
-  <si>
-    <t>The government raided The Medical City and other private hospitals taking away their personal protective equipment (PPE).</t>
-  </si>
-  <si>
-    <t>On a per capita basis things look quite different. NY still dominates but Louisiana—due in part to a large outbreak—has tested a lot of people. There are huge disparities in testing between the states as we've often noted. https://t.co/5x75DI44E3</t>
-  </si>
-  <si>
-    <t>STUDY: Death rate for cancer patients with symptomatic COVID-19 was 28%. https://t.co/KXB5qOVKq7 https://t.co/p74z0mW7Lz</t>
-  </si>
-  <si>
-    <t>Please share this video Neem leaves powder can cure corona within hours please share this video allah had blessed us with the corona vaccine #coronavirus #coronavacccine @WorldHealthOrg2</t>
-  </si>
-  <si>
-    <t>Physician scientist and epidemiologist John Ioannidis explains his controversial position on the #COVID lockdowns. https://t.co/BddeVDwKsh https://t.co/lnDLB99hWe</t>
-  </si>
-  <si>
-    <t>DPS School charging 350 /= for these face masks from Students . While in market its selling only 20 to 30 Rupees , very unfortunate they should distribute these masks for students free of cost . And should not charge them during this pandamic .</t>
-  </si>
-  <si>
-    <t>The flu didn't kill any Americans this year.</t>
-  </si>
-  <si>
-    <t>As of June 30: More than 2.5 million #COVID19 cases have been reported in the U.S. with 40 states and jurisdictions reporting more than 10000 cases. See how many cases have been reported in your state or county here: https://t.co/wiuFBKR3Uh https://t.co/T4CXMt3pCk</t>
-  </si>
-  <si>
-    <t>Dr Lisa Danzig shares what the #COVID19 Early Treatment Fund is doing to get control of the pandemic. https://t.co/5iPvPnUqiu</t>
-  </si>
-  <si>
-    <t>IMPORTANT INFO FOR SURGICAL MASK USERS 😷
-✅ White side facing outwards if you want to protect yourself. 
-✅ If you have flu, blue or green side facing outwards to prevent the germs from spreading outwards.
-#COVID19Pakistan #COVID2019 #CoronaVirusUpdate</t>
-  </si>
-  <si>
-    <t>If we have a circuit break now what's going to happen next? @Dr_Ellie says new 'circuit break' lockdown rules are not a long-term solution - and the risks of #COVID19 must be weighed against the increased risk of deaths from other illnesses. Latest: https://t.co/Dyom9RCRgk https://t.co/uCSdnISY9Z</t>
-  </si>
-  <si>
-    <t>Says FEMA is giving essential workers $1,000.</t>
-  </si>
-  <si>
-    <t>🎧 New Podcast: Can wearable tech + AI converge to predict diseases like #COVID19? https://t.co/YAdqa2CpFG with @EricTopol @cuttingforstone</t>
-  </si>
-  <si>
-    <t>Russia released 500 lions to ensure people would stay inside houses.</t>
-  </si>
-  <si>
-    <t>In New York “every contaminated corpse belongs to the state” and will be incinerated without any “wakes or memorial services to pay your last respects.”</t>
-  </si>
-  <si>
-    <t>Claim: Top Georgian health official Gamkrelidze said the COVID-19 vaccine will be available in Georgia in several weeks</t>
-  </si>
-  <si>
-    <t>Study shows 1 in 6 maternity health workers have had COVID-19 half of whom were completely asymptomatic. https://t.co/aQVGkpUKYV</t>
-  </si>
-  <si>
-    <t>Claim that supermarket workers are required to have a flu vaccination or face dismissal.</t>
-  </si>
-  <si>
-    <t>An analysis of hundreds of COVID reports and studies finds that there is limited spread of COVID between children and from children suggesting that children are unlikely to be sources of COVID outbreaks. Read the study: https://t.co/eu9Y5g3yuf</t>
-  </si>
-  <si>
-    <t>Coronavirus: $7trn could be lost to world economy due to pandemic says OECD https://t.co/h9obqjyxRM</t>
-  </si>
-  <si>
-    <t>Tracking city-level data allows us to see that 48% of Black people who have died from COVID-19 in Michigan are from Detroit. But the decisions that individual jurisdictions make can obscure the scale of this impact. https://t.co/N7Ex0uSP3C</t>
-  </si>
-  <si>
-    <t>The coronavirus is ???simply the common cold.??�</t>
-  </si>
-  <si>
-    <t>Human resources department institutes epic ass-covering measures in response to pandemic https://t.co/7KCfBO7W1E #pandemic #corporations</t>
-  </si>
-  <si>
-    <t>Close to half (48.8%) of #COVID19 Active Cases concentrated in 3 States: Maharashtra Karnataka &amp;amp; Andhra Pradesh. Uttar Pradesh Tamil Nadu Chhattisgarh Odisha Kerala and Telangana contribute about a quarter (24.4%) of the Active Cases. https://t.co/Ak5sJeIoTv</t>
-  </si>
-  <si>
-    <t>That brings the total number of tests completed to date 462590. COVID-19 case in South Korea: We continue to receive and analyse information about the traveller who recently tested positive upon arrival in South Korea.</t>
-  </si>
-  <si>
-    <t>Princess Cruises offers Navy tips on Coronavirus https://t.co/Xap8rTEwcv</t>
-  </si>
-  <si>
-    <t>Taking a bath with extremely hot water will prevent coronavirus! This 'False' claim is a perfect example of how fatal fake news can be. Use #MainBhiNewschecker and tell us some of the most fatal 'False' claims that you came across and debunked. https://t.co/PoUvxPuis3</t>
-  </si>
-  <si>
-    <t>RT @HHSGov: #DYK panic attacks and #COVID19 share some of the same symptoms? Visit https://t.co/36fDTtAC2O to learn how to spot the differe…</t>
-  </si>
-  <si>
-    <t>We're building out some slack channels for different types of @COVID19Tracking users. You can sign up here. https://t.co/qUT7juTqE9</t>
-  </si>
-  <si>
-    <t>Seven of New Zealand's significant clusters have closed. The most recent of these is the World Hereford Conference cluster which was closed today. Yesterday laboratories around the country completed 2813 tests bringing the total number of tests completed to date to 288987.</t>
-  </si>
-  <si>
-    <t>Golf courses are reopening in Ireland on 2nd May.</t>
-  </si>
-  <si>
-    <t>An Italian doctor who worked at the Shenzhen hospital in China issued a series of instuctions for locating and treating the new coronavirus SARS-CoV-2.</t>
-  </si>
-  <si>
-    <t>This picture show the young pregnant doctor who died from COVID-19 in Algeria.</t>
-  </si>
-  <si>
-    <t>In Spain the police came to encourage doctors to work after they gave up and wanted to quit.</t>
-  </si>
-  <si>
-    <t>RT @GaonConnection: 52 testing sites for COVID -19 in India by Indian Council of Medical Research #coronavirusindia #coronavirus #COVIDー19…</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: #CoronaWatch ◾ 2461190 total confirmed cases ◾ 1751555 cases cured/recovered ◾ 27694416 samples tested Here's the…</t>
-  </si>
-  <si>
-    <t>CDC along with state and local health departments and other partners is working to better understand the impact of #COVID19 during pregnancy on both the mother and infant. Learn about these efforts here: https://t.co/wbvgIg9Yc0. https://t.co/cdDLboeUes</t>
-  </si>
-  <si>
-    <t>Coronavirus: Facebook and NHS team up to call for blood donations ahead of second wave https://t.co/ZyZznBGe6m</t>
-  </si>
-  <si>
-    <t>Kamala Harris' sister does take hydroxychloroquine but it's for lupus — not COVID-19. https://t.co/AklU8ikRd1 https://t.co/IQ23EBkEkZ</t>
-  </si>
-  <si>
-    <t>Our partner the @CEPIvaccines is supporting 9 candidate #COVID19 vaccines that will be made available to the COVAX facility if successful 7 of which are in clinical trials. We’re also in discussions about 4 other promising vaccines-@DrTedros</t>
-  </si>
-  <si>
-    <t>146 new cases of #COVID19; 57-Lagos 27-Kano 10-Kwara 9-Edo 8-Bauchi 7-Yobe 4-Kebbi 4-Oyo 3-Katsina 3-Niger 2-Plateau 2-Borno 2-Sokoto 2-Benue 1-Gombe 1-Enugu 1-Ebonyi 1-Ogun 1-FCT 1-Rivers 4787 cases of #COVID19 in Nigeria Discharged: 959 Deaths: 158 https://t.co/vlqzSxqacq</t>
-  </si>
-  <si>
-    <t>.@realDonaldTrump claimed coronavirus cases are going up “only” due to more testing. That’s False. The number of tests across the country has increased but so has the positivity rate. https://t.co/5l9jptglAI https://t.co/An36EoVaAp</t>
-  </si>
-  <si>
-    <t>???No other country??� is having a ???second wave??� of COVID-19 ???because they are not trying to unseat a President in November.??�</t>
-  </si>
 </sst>
 </file>
 
@@ -2218,8 +784,8 @@
   </sheetPr>
   <dimension ref="A1:C6421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="B571" sqref="B571"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3515,4723 +2081,2149 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>137</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>139</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>141</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>142</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>143</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>144</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>145</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>146</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>147</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>148</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>149</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>150</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>151</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>152</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>153</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>154</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>155</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>156</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>157</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>158</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>159</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>160</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>161</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>162</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>163</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>164</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>165</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>166</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
     </row>
     <row r="168" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>167</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
     </row>
     <row r="169" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>168</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>169</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>170</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>171</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>172</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>173</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>174</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>175</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>176</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>177</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>178</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>179</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
     </row>
     <row r="181" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>180</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
     </row>
     <row r="182" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>181</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>182</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>183</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
     </row>
     <row r="185" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>184</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
     </row>
     <row r="186" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>185</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
     </row>
     <row r="187" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>186</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>187</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>188</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
     </row>
     <row r="190" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>189</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>190</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
     </row>
     <row r="192" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>191</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>192</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>193</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>194</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>195</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>196</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
     </row>
     <row r="198" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>197</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>198</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
     </row>
     <row r="200" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>199</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>200</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>201</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
     </row>
     <row r="203" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>202</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>203</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>204</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
     </row>
     <row r="206" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>205</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
     </row>
     <row r="207" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>206</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
     </row>
     <row r="208" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>207</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>208</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>209</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
     </row>
     <row r="211" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>210</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
     </row>
     <row r="212" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>211</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>212</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>213</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="215" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>214</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
     </row>
     <row r="216" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>215</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>216</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>217</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>218</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
     </row>
     <row r="220" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>219</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
     </row>
     <row r="221" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>220</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
     </row>
     <row r="222" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>221</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
     </row>
     <row r="223" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
-        <v>222</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
     </row>
     <row r="224" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
-        <v>223</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>224</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
     </row>
     <row r="226" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
-        <v>225</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
     </row>
     <row r="227" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
-        <v>226</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
     </row>
     <row r="228" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
-        <v>227</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
-        <v>228</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
     </row>
     <row r="230" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
-        <v>229</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>230</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
     </row>
     <row r="232" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
-        <v>231</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
     </row>
     <row r="233" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
-        <v>232</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
     </row>
     <row r="234" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
-        <v>233</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
     </row>
     <row r="235" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
-        <v>234</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
     </row>
     <row r="236" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>235</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
-        <v>236</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
     </row>
     <row r="238" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>237</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>238</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
     </row>
     <row r="240" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
-        <v>239</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
     </row>
     <row r="241" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
-        <v>240</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
     </row>
     <row r="242" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>241</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
     </row>
     <row r="243" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
-        <v>242</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
     </row>
     <row r="244" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>243</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
     </row>
     <row r="245" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>244</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
     </row>
     <row r="246" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>245</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
     </row>
     <row r="247" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>246</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
     </row>
     <row r="248" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>247</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
     </row>
     <row r="249" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>248</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
     </row>
     <row r="250" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
-        <v>249</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
     </row>
     <row r="251" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
-        <v>250</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
     </row>
     <row r="252" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
-        <v>251</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
     </row>
     <row r="253" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
-        <v>252</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
     </row>
     <row r="254" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
-        <v>253</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
     </row>
     <row r="255" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
-        <v>254</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
     </row>
     <row r="256" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
-        <v>255</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
     </row>
     <row r="257" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
-        <v>256</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
     </row>
     <row r="258" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
-        <v>257</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
     </row>
     <row r="259" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
-        <v>258</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
     </row>
     <row r="260" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
-        <v>259</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
     </row>
     <row r="261" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
-        <v>260</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
     </row>
     <row r="262" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>261</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
     </row>
     <row r="263" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
-        <v>262</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
     </row>
     <row r="264" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
-        <v>263</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
     </row>
     <row r="265" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
-        <v>264</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
-        <v>265</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
     </row>
     <row r="267" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
-        <v>266</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
     </row>
     <row r="268" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
-        <v>267</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
-        <v>268</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
     </row>
     <row r="270" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
-        <v>269</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
     </row>
     <row r="271" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
-        <v>270</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
-        <v>271</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
-        <v>272</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
     </row>
     <row r="274" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
-        <v>273</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
     </row>
     <row r="275" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
-        <v>274</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
     </row>
     <row r="276" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
-        <v>275</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
     </row>
     <row r="277" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
-        <v>276</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
     </row>
     <row r="278" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
-        <v>277</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
     </row>
     <row r="279" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
-        <v>278</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
     </row>
     <row r="280" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
-        <v>279</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
     </row>
     <row r="281" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>280</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
     </row>
     <row r="282" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>281</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
     </row>
     <row r="283" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>282</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
     </row>
     <row r="284" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>283</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
     </row>
     <row r="285" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>284</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
     </row>
     <row r="286" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>285</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
     </row>
     <row r="287" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>286</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
     </row>
     <row r="288" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>287</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
     </row>
     <row r="289" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
-        <v>288</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
     </row>
     <row r="290" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
-        <v>289</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
     </row>
     <row r="291" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
-        <v>290</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
     </row>
     <row r="292" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
-        <v>291</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
     </row>
     <row r="293" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>292</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
     </row>
     <row r="294" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>293</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
     </row>
     <row r="295" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>294</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
     </row>
     <row r="296" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>295</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
     </row>
     <row r="297" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>296</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
     </row>
     <row r="298" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>297</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
-        <v>298</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
     </row>
     <row r="300" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>299</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
     </row>
     <row r="301" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
-        <v>300</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
     </row>
     <row r="302" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>301</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
     </row>
     <row r="303" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
-        <v>302</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
     </row>
     <row r="304" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>303</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
     </row>
     <row r="305" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
-        <v>304</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
     </row>
     <row r="306" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
-        <v>305</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
     </row>
     <row r="307" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
-        <v>306</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
     </row>
     <row r="308" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
-        <v>307</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
     </row>
     <row r="309" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
-        <v>308</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
     </row>
     <row r="310" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
-        <v>309</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
     </row>
     <row r="311" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
-        <v>310</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
     </row>
     <row r="312" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
-        <v>311</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
     </row>
     <row r="313" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
-        <v>312</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
     </row>
     <row r="314" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
-        <v>313</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
     </row>
     <row r="315" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
-        <v>314</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
     </row>
     <row r="316" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
-        <v>315</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
     </row>
     <row r="317" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
-        <v>316</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
     </row>
     <row r="318" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
-        <v>317</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
     </row>
     <row r="319" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
-        <v>318</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
     </row>
     <row r="320" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
-        <v>319</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
     </row>
     <row r="321" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
-        <v>320</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
     </row>
     <row r="322" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
-        <v>321</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
-        <v>322</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
     </row>
     <row r="324" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
-        <v>323</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
     </row>
     <row r="325" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
-        <v>324</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
-        <v>325</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
-        <v>326</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
     </row>
     <row r="328" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
-        <v>327</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
     </row>
     <row r="329" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
-        <v>328</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
     </row>
     <row r="330" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
-        <v>329</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
     </row>
     <row r="331" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
-        <v>330</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
     </row>
     <row r="332" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
-        <v>331</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
     </row>
     <row r="333" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
-        <v>332</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
     </row>
     <row r="334" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
-        <v>333</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
     </row>
     <row r="335" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
-        <v>334</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
     </row>
     <row r="336" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
-        <v>335</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
     </row>
     <row r="337" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
-        <v>336</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
     </row>
     <row r="338" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
-        <v>337</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
     </row>
     <row r="339" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
-        <v>338</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
     </row>
     <row r="340" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
-        <v>339</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
     </row>
     <row r="341" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
-        <v>340</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
     </row>
     <row r="342" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
-        <v>341</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
     </row>
     <row r="343" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
-        <v>342</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
     </row>
     <row r="344" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>343</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
     </row>
     <row r="345" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
-        <v>344</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
     </row>
     <row r="346" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>345</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
     </row>
     <row r="347" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
-        <v>346</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
     </row>
     <row r="348" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
-        <v>347</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
     </row>
     <row r="349" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
-        <v>348</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
     </row>
     <row r="350" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
-        <v>349</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
     </row>
     <row r="351" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
-        <v>350</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
     </row>
     <row r="352" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
-        <v>351</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
     </row>
     <row r="353" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
-        <v>352</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
     </row>
     <row r="354" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
-        <v>353</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
     </row>
     <row r="355" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
-        <v>354</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
     </row>
     <row r="356" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
-        <v>355</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
     </row>
     <row r="357" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
-        <v>356</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
     </row>
     <row r="358" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
-        <v>357</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
     </row>
     <row r="359" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
-        <v>358</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
     </row>
     <row r="360" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
-        <v>359</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
     </row>
     <row r="361" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
-        <v>360</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
     </row>
     <row r="362" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
-        <v>361</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
     </row>
     <row r="363" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
-        <v>362</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
     </row>
     <row r="364" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
-        <v>363</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
     </row>
     <row r="365" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
-        <v>364</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
     </row>
     <row r="366" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
-        <v>365</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
     </row>
     <row r="367" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
-        <v>366</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
     </row>
     <row r="368" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
-        <v>367</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
     </row>
     <row r="369" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
-        <v>368</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
     </row>
     <row r="370" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
-        <v>369</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
     </row>
     <row r="371" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
-        <v>370</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
     </row>
     <row r="372" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
-        <v>371</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
     </row>
     <row r="373" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
-        <v>372</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
     </row>
     <row r="374" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
-        <v>373</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
     </row>
     <row r="375" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
-        <v>374</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
     </row>
     <row r="376" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
-        <v>375</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
     </row>
     <row r="377" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
-        <v>376</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
     </row>
     <row r="378" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
-        <v>377</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
     </row>
     <row r="379" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
-        <v>378</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
     </row>
     <row r="380" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
-        <v>379</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
     </row>
     <row r="381" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
-        <v>380</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
     </row>
     <row r="382" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
-        <v>381</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
     </row>
     <row r="383" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
-        <v>382</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
     </row>
     <row r="384" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
-        <v>383</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
     </row>
     <row r="385" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
-        <v>384</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
     </row>
     <row r="386" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
-        <v>385</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
     </row>
     <row r="387" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
-        <v>386</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
     </row>
     <row r="388" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
-        <v>387</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
     </row>
     <row r="389" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
-        <v>388</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
     </row>
     <row r="390" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
-        <v>389</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
     </row>
     <row r="391" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
-        <v>390</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
     </row>
     <row r="392" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
-        <v>391</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
     </row>
     <row r="393" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
-        <v>392</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
     </row>
     <row r="394" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
-        <v>393</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
     </row>
     <row r="395" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
-        <v>394</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
     </row>
     <row r="396" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
-        <v>395</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
     </row>
     <row r="397" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
-        <v>396</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
     </row>
     <row r="398" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
-        <v>397</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
     </row>
     <row r="399" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
-        <v>398</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
     </row>
     <row r="400" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
-        <v>399</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
     </row>
     <row r="401" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
-        <v>400</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
     </row>
     <row r="402" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
-        <v>401</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
     </row>
     <row r="403" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
-        <v>402</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
     </row>
     <row r="404" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
-        <v>403</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
     </row>
     <row r="405" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
-        <v>404</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
     </row>
     <row r="406" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
-        <v>405</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
     </row>
     <row r="407" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
-        <v>406</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
     </row>
     <row r="408" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
-        <v>407</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
     </row>
     <row r="409" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A409" s="1">
-        <v>408</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
     </row>
     <row r="410" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A410" s="1">
-        <v>409</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
     </row>
     <row r="411" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
-        <v>410</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
     </row>
     <row r="412" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
-        <v>411</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
     </row>
     <row r="413" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
-        <v>412</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
     </row>
     <row r="414" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
-        <v>413</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
     </row>
     <row r="415" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
-        <v>414</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
     </row>
     <row r="416" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
-        <v>415</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
     </row>
     <row r="417" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
-        <v>416</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
     </row>
     <row r="418" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A418" s="1">
-        <v>417</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
     </row>
     <row r="419" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
-        <v>418</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
     </row>
     <row r="420" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
-        <v>419</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
     </row>
     <row r="421" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
-        <v>420</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
     </row>
     <row r="422" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
-        <v>421</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
     </row>
     <row r="423" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
-        <v>422</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
     </row>
     <row r="424" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
-        <v>423</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
     </row>
     <row r="425" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A425" s="1">
-        <v>424</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
     </row>
     <row r="426" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
-        <v>425</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
     </row>
     <row r="427" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
-        <v>426</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
     </row>
     <row r="428" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
-        <v>427</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
     </row>
     <row r="429" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A429" s="1">
-        <v>428</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
     </row>
     <row r="430" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
-        <v>429</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
     </row>
     <row r="431" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
-        <v>430</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
     </row>
     <row r="432" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A432" s="1">
-        <v>431</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
     </row>
     <row r="433" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A433" s="1">
-        <v>432</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
     </row>
     <row r="434" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
-        <v>433</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
     </row>
     <row r="435" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A435" s="1">
-        <v>434</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
     </row>
     <row r="436" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
-        <v>435</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
     </row>
     <row r="437" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A437" s="1">
-        <v>436</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
     </row>
     <row r="438" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A438" s="1">
-        <v>437</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
     </row>
     <row r="439" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A439" s="1">
-        <v>438</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
     </row>
     <row r="440" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A440" s="1">
-        <v>439</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
     </row>
     <row r="441" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A441" s="1">
-        <v>440</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
     </row>
     <row r="442" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A442" s="1">
-        <v>441</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
     </row>
     <row r="443" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>442</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
     </row>
     <row r="444" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
-        <v>443</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
     </row>
     <row r="445" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
-        <v>444</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
     </row>
     <row r="446" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
-        <v>445</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
     </row>
     <row r="447" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
-        <v>446</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C447" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
     </row>
     <row r="448" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A448" s="1">
-        <v>447</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
     </row>
     <row r="449" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A449" s="1">
-        <v>448</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
     </row>
     <row r="450" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A450" s="1">
-        <v>449</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
     </row>
     <row r="451" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
-        <v>450</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
     </row>
     <row r="452" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A452" s="1">
-        <v>451</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
     </row>
     <row r="453" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
-        <v>452</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
     </row>
     <row r="454" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A454" s="1">
-        <v>453</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
     </row>
     <row r="455" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
-        <v>454</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
     </row>
     <row r="456" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A456" s="1">
-        <v>455</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
     </row>
     <row r="457" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A457" s="1">
-        <v>456</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
     </row>
     <row r="458" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
-        <v>457</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
     </row>
     <row r="459" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
-        <v>458</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
     </row>
     <row r="460" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
-        <v>459</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
     </row>
     <row r="461" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
-        <v>460</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
     </row>
     <row r="462" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
-        <v>461</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
     </row>
     <row r="463" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
-        <v>462</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
     </row>
     <row r="464" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
-        <v>463</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
     </row>
     <row r="465" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
-        <v>464</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
     </row>
     <row r="466" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="1">
-        <v>465</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
     </row>
     <row r="467" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="1">
-        <v>466</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
     </row>
     <row r="468" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
-        <v>467</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
     </row>
     <row r="469" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
-        <v>468</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
     </row>
     <row r="470" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
-        <v>469</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
     </row>
     <row r="471" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
-        <v>470</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
     </row>
     <row r="472" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
-        <v>471</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
     </row>
     <row r="473" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
-        <v>472</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
     </row>
     <row r="474" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
-        <v>473</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
     </row>
     <row r="475" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
-        <v>474</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
     </row>
     <row r="476" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
-        <v>475</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
     </row>
     <row r="477" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A477" s="1">
-        <v>476</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
     </row>
     <row r="478" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A478" s="1">
-        <v>477</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
     </row>
     <row r="479" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A479" s="1">
-        <v>478</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
     </row>
     <row r="480" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A480" s="1">
-        <v>479</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
     </row>
     <row r="481" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A481" s="1">
-        <v>480</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
     </row>
     <row r="482" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A482" s="1">
-        <v>481</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
     </row>
     <row r="483" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
-        <v>482</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
     </row>
     <row r="484" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
-        <v>483</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
     </row>
     <row r="485" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
-        <v>484</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
     </row>
     <row r="486" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
-        <v>485</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
     </row>
     <row r="487" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
-        <v>486</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A487" s="1"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
     </row>
     <row r="488" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
-        <v>487</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
     </row>
     <row r="489" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
-        <v>488</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
     </row>
     <row r="490" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
-        <v>489</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
     </row>
     <row r="491" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
-        <v>490</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
     </row>
     <row r="492" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
-        <v>491</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
     </row>
     <row r="493" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>492</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
     </row>
     <row r="494" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A494" s="1">
-        <v>493</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
     </row>
     <row r="495" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A495" s="1">
-        <v>494</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
     </row>
     <row r="496" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A496" s="1">
-        <v>495</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
     </row>
     <row r="497" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A497" s="1">
-        <v>496</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
     </row>
     <row r="498" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
-        <v>497</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
     </row>
     <row r="499" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A499" s="1">
-        <v>498</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
     </row>
     <row r="500" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A500" s="1">
-        <v>499</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
     </row>
     <row r="501" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A501" s="1">
-        <v>500</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
     </row>
     <row r="502" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A502" s="1">
-        <v>501</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
     </row>
     <row r="503" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
-        <v>502</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
     </row>
     <row r="504" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
-        <v>503</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
     </row>
     <row r="505" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A505" s="1">
-        <v>504</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
     </row>
     <row r="506" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A506" s="1">
-        <v>505</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
     </row>
     <row r="507" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A507" s="1">
-        <v>506</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
     </row>
     <row r="508" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A508" s="1">
-        <v>507</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
     </row>
     <row r="509" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A509" s="1">
-        <v>508</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
     </row>
     <row r="510" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A510" s="1">
-        <v>509</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
     </row>
     <row r="511" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A511" s="1">
-        <v>510</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
     </row>
     <row r="512" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A512" s="1">
-        <v>511</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A512" s="1"/>
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
     </row>
     <row r="513" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A513" s="1">
-        <v>512</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
     </row>
     <row r="514" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A514" s="1">
-        <v>513</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
     </row>
     <row r="515" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A515" s="1">
-        <v>514</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
     </row>
     <row r="516" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A516" s="1">
-        <v>515</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
     </row>
     <row r="517" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A517" s="1">
-        <v>516</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
     </row>
     <row r="518" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A518" s="1">
-        <v>517</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
     </row>
     <row r="519" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A519" s="1">
-        <v>518</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
     </row>
     <row r="520" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A520" s="1">
-        <v>519</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
     </row>
     <row r="521" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A521" s="1">
-        <v>520</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
     </row>
     <row r="522" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A522" s="1">
-        <v>521</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
     </row>
     <row r="523" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A523" s="1">
-        <v>522</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
     </row>
     <row r="524" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A524" s="1">
-        <v>523</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
     </row>
     <row r="525" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A525" s="1">
-        <v>524</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
     </row>
     <row r="526" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A526" s="1">
-        <v>525</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
     </row>
     <row r="527" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A527" s="1">
-        <v>526</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
     </row>
     <row r="528" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A528" s="1">
-        <v>527</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
     </row>
     <row r="529" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A529" s="1">
-        <v>528</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
     </row>
     <row r="530" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A530" s="1">
-        <v>529</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
     </row>
     <row r="531" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A531" s="1">
-        <v>530</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
     </row>
     <row r="532" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A532" s="1">
-        <v>531</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
     </row>
     <row r="533" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A533" s="1">
-        <v>532</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
     </row>
     <row r="534" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A534" s="1">
-        <v>533</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
     </row>
     <row r="535" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A535" s="1">
-        <v>534</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
     </row>
     <row r="536" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A536" s="1">
-        <v>535</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
     </row>
     <row r="537" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A537" s="1">
-        <v>536</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
     </row>
     <row r="538" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A538" s="1">
-        <v>537</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
     </row>
     <row r="539" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A539" s="1">
-        <v>538</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
     </row>
     <row r="540" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A540" s="1">
-        <v>539</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
     </row>
     <row r="541" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A541" s="1">
-        <v>540</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
     </row>
     <row r="542" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A542" s="1">
-        <v>541</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
     </row>
     <row r="543" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A543" s="1">
-        <v>542</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
     </row>
     <row r="544" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A544" s="1">
-        <v>543</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
     </row>
     <row r="545" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A545" s="1">
-        <v>544</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
     </row>
     <row r="546" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A546" s="1">
-        <v>545</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
     </row>
     <row r="547" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
@@ -8239,180 +4231,84 @@
       <c r="C547" s="1"/>
     </row>
     <row r="548" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A548" s="1">
-        <v>547</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
     </row>
     <row r="549" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A549" s="1">
-        <v>548</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
     </row>
     <row r="550" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A550" s="1">
-        <v>549</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
     </row>
     <row r="551" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A551" s="1">
-        <v>550</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
     </row>
     <row r="552" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A552" s="1">
-        <v>551</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
     </row>
     <row r="553" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A553" s="1">
-        <v>552</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
     </row>
     <row r="554" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A554" s="1">
-        <v>553</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A554" s="1"/>
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
     </row>
     <row r="555" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A555" s="1">
-        <v>554</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
     </row>
     <row r="556" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A556" s="1">
-        <v>555</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
     </row>
     <row r="557" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A557" s="1">
-        <v>556</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
     </row>
     <row r="558" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A558" s="1">
-        <v>557</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
     </row>
     <row r="559" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A559" s="1">
-        <v>558</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
     </row>
     <row r="560" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A560" s="1">
-        <v>559</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A560" s="1"/>
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
     </row>
     <row r="561" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A561" s="1">
-        <v>560</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
     </row>
     <row r="562" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A562" s="1">
-        <v>561</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
     </row>
     <row r="563" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A563" s="1">
-        <v>562</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
     </row>
     <row r="564" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
@@ -37722,6 +33618,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000E78AF11E754646AA592EDA218D5F94" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cb9d5243d5e912349fe1a4d4c8d6cb85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2cc73722-0bc8-4945-a9ce-9fd4614c5ce5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="192d0e71e7dd23fb68c821970bc25c76" ns2:_="">
     <xsd:import namespace="2cc73722-0bc8-4945-a9ce-9fd4614c5ce5"/>
@@ -37853,12 +33755,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5076AB0-C6EB-4927-BE84-F0149EAF5898}">
   <ds:schemaRefs>
@@ -37868,6 +33764,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE87362-4083-4B73-8FBF-F163F5598C36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6200F3D-D995-4719-869F-758E09F7963E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37883,13 +33788,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE87362-4083-4B73-8FBF-F163F5598C36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>